--- a/data_analysis/df_studenti.xlsx
+++ b/data_analysis/df_studenti.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY97"/>
+  <dimension ref="A1:AY113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16870,6 +16870,2681 @@
         </is>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:35:36</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:38:47</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>78.209.31.214</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>1732707528.153</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>R_2lcmcV8U95hbwCr</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T98">
+        <v>4</v>
+      </c>
+      <c r="U98">
+        <v>3</v>
+      </c>
+      <c r="V98">
+        <v>4</v>
+      </c>
+      <c r="W98">
+        <v>1</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>che si deve lavare tutti insieme, bisogna collaborare</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>5</v>
+      </c>
+      <c r="Z98">
+        <v>5</v>
+      </c>
+      <c r="AA98">
+        <v>5</v>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>ridurre il più possibile il danneggiamento dell’ambiente</t>
+        </is>
+      </c>
+      <c r="AC98">
+        <v>4</v>
+      </c>
+      <c r="AD98">
+        <v>5</v>
+      </c>
+      <c r="AE98">
+        <v>4</v>
+      </c>
+      <c r="AF98">
+        <v>2</v>
+      </c>
+      <c r="AG98">
+        <v>5</v>
+      </c>
+      <c r="AH98">
+        <v>5</v>
+      </c>
+      <c r="AI98">
+        <v>5</v>
+      </c>
+      <c r="AJ98">
+        <v>4</v>
+      </c>
+      <c r="AK98">
+        <v>4</v>
+      </c>
+      <c r="AL98">
+        <v>2</v>
+      </c>
+      <c r="AM98">
+        <v>4</v>
+      </c>
+      <c r="AN98">
+        <v>3</v>
+      </c>
+      <c r="AO98">
+        <v>4</v>
+      </c>
+      <c r="AP98">
+        <v>2</v>
+      </c>
+      <c r="AQ98">
+        <v>6</v>
+      </c>
+      <c r="AR98">
+        <v>2</v>
+      </c>
+      <c r="AS98">
+        <v>7</v>
+      </c>
+      <c r="AT98">
+        <v>2</v>
+      </c>
+      <c r="AU98">
+        <v>8</v>
+      </c>
+      <c r="AV98">
+        <v>1</v>
+      </c>
+      <c r="AW98" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="AX98">
+        <v>1</v>
+      </c>
+      <c r="AY98" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:37:03</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:39:08</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>151.37.219.100</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>1732707549.397</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>R_2jZpkMdTFcxElEY</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>41.9008</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>12.4874</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T99">
+        <v>1</v>
+      </c>
+      <c r="U99">
+        <v>2</v>
+      </c>
+      <c r="V99">
+        <v>2</v>
+      </c>
+      <c r="W99">
+        <v>2</v>
+      </c>
+      <c r="AL99">
+        <v>1</v>
+      </c>
+      <c r="AW99" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="AX99">
+        <v>1</v>
+      </c>
+      <c r="AY99" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:35:39</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:39:14</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>151.37.203.44</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>1732707555.344</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>R_80DOZIywQejLIAN</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>41.9008</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>12.4874</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
+        <v>4</v>
+      </c>
+      <c r="V100">
+        <v>5</v>
+      </c>
+      <c r="W100">
+        <v>1</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>Che bisogna trovare un equilibrio su risorse naturali e consumi</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>5</v>
+      </c>
+      <c r="Z100">
+        <v>5</v>
+      </c>
+      <c r="AA100">
+        <v>3</v>
+      </c>
+      <c r="AC100">
+        <v>4</v>
+      </c>
+      <c r="AD100">
+        <v>2</v>
+      </c>
+      <c r="AE100">
+        <v>2</v>
+      </c>
+      <c r="AF100">
+        <v>3</v>
+      </c>
+      <c r="AG100">
+        <v>3</v>
+      </c>
+      <c r="AH100">
+        <v>1</v>
+      </c>
+      <c r="AI100">
+        <v>4</v>
+      </c>
+      <c r="AJ100">
+        <v>5</v>
+      </c>
+      <c r="AK100">
+        <v>3</v>
+      </c>
+      <c r="AL100">
+        <v>3</v>
+      </c>
+      <c r="AM100">
+        <v>4</v>
+      </c>
+      <c r="AN100">
+        <v>2</v>
+      </c>
+      <c r="AO100">
+        <v>5</v>
+      </c>
+      <c r="AP100">
+        <v>5</v>
+      </c>
+      <c r="AQ100">
+        <v>6</v>
+      </c>
+      <c r="AR100">
+        <v>2</v>
+      </c>
+      <c r="AS100">
+        <v>7</v>
+      </c>
+      <c r="AT100">
+        <v>6</v>
+      </c>
+      <c r="AU100">
+        <v>2</v>
+      </c>
+      <c r="AV100">
+        <v>2</v>
+      </c>
+      <c r="AW100" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="AX100">
+        <v>1</v>
+      </c>
+      <c r="AY100" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:35:43</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:39:25</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>185.8.121.247</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>1732707566.193</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>R_2wBqrZGkrZTNIR3</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
+        <v>1</v>
+      </c>
+      <c r="V101">
+        <v>5</v>
+      </c>
+      <c r="W101">
+        <v>1</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>Astuzia,intelligenza e furbizia</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>5</v>
+      </c>
+      <c r="Z101">
+        <v>2</v>
+      </c>
+      <c r="AA101">
+        <v>1</v>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>Mantenere e riprovare</t>
+        </is>
+      </c>
+      <c r="AC101">
+        <v>5</v>
+      </c>
+      <c r="AD101">
+        <v>1</v>
+      </c>
+      <c r="AE101">
+        <v>2</v>
+      </c>
+      <c r="AF101">
+        <v>2</v>
+      </c>
+      <c r="AG101">
+        <v>4</v>
+      </c>
+      <c r="AH101">
+        <v>2</v>
+      </c>
+      <c r="AI101">
+        <v>5</v>
+      </c>
+      <c r="AJ101">
+        <v>4</v>
+      </c>
+      <c r="AK101">
+        <v>4</v>
+      </c>
+      <c r="AL101">
+        <v>1</v>
+      </c>
+      <c r="AM101">
+        <v>4</v>
+      </c>
+      <c r="AN101">
+        <v>2</v>
+      </c>
+      <c r="AO101">
+        <v>1</v>
+      </c>
+      <c r="AP101">
+        <v>5</v>
+      </c>
+      <c r="AQ101">
+        <v>7</v>
+      </c>
+      <c r="AR101">
+        <v>2</v>
+      </c>
+      <c r="AS101">
+        <v>2</v>
+      </c>
+      <c r="AT101">
+        <v>2</v>
+      </c>
+      <c r="AU101">
+        <v>7</v>
+      </c>
+      <c r="AV101">
+        <v>7</v>
+      </c>
+      <c r="AW101" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="AX101">
+        <v>1</v>
+      </c>
+      <c r="AY101" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:36:21</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:39:39</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>217.201.52.194</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>1732707580.226</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>R_2isL5gTHixqUCkF</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T102">
+        <v>3</v>
+      </c>
+      <c r="U102">
+        <v>3</v>
+      </c>
+      <c r="V102">
+        <v>3</v>
+      </c>
+      <c r="W102">
+        <v>1</v>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>Che si deve fare attenzione su cosa spendi</t>
+        </is>
+      </c>
+      <c r="Y102">
+        <v>5</v>
+      </c>
+      <c r="Z102">
+        <v>5</v>
+      </c>
+      <c r="AA102">
+        <v>5</v>
+      </c>
+      <c r="AC102">
+        <v>3</v>
+      </c>
+      <c r="AD102">
+        <v>3</v>
+      </c>
+      <c r="AE102">
+        <v>2</v>
+      </c>
+      <c r="AF102">
+        <v>2</v>
+      </c>
+      <c r="AG102">
+        <v>2</v>
+      </c>
+      <c r="AH102">
+        <v>1</v>
+      </c>
+      <c r="AI102">
+        <v>5</v>
+      </c>
+      <c r="AJ102">
+        <v>5</v>
+      </c>
+      <c r="AK102">
+        <v>2</v>
+      </c>
+      <c r="AL102">
+        <v>5</v>
+      </c>
+      <c r="AM102">
+        <v>2</v>
+      </c>
+      <c r="AN102">
+        <v>3</v>
+      </c>
+      <c r="AO102">
+        <v>1</v>
+      </c>
+      <c r="AP102">
+        <v>3</v>
+      </c>
+      <c r="AQ102">
+        <v>8</v>
+      </c>
+      <c r="AR102">
+        <v>1</v>
+      </c>
+      <c r="AS102">
+        <v>6</v>
+      </c>
+      <c r="AT102">
+        <v>8</v>
+      </c>
+      <c r="AU102">
+        <v>1</v>
+      </c>
+      <c r="AV102">
+        <v>6</v>
+      </c>
+      <c r="AW102" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="AX102">
+        <v>1</v>
+      </c>
+      <c r="AY102" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:37:23</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:40:23</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>151.35.146.74</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>1732707623.547</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>R_8gS5FzKvvwCDGXT</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T103">
+        <v>1</v>
+      </c>
+      <c r="U103">
+        <v>4</v>
+      </c>
+      <c r="V103">
+        <v>5</v>
+      </c>
+      <c r="W103">
+        <v>1</v>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>Come gestire un pascolo</t>
+        </is>
+      </c>
+      <c r="Y103">
+        <v>5</v>
+      </c>
+      <c r="Z103">
+        <v>1</v>
+      </c>
+      <c r="AA103">
+        <v>1</v>
+      </c>
+      <c r="AC103">
+        <v>5</v>
+      </c>
+      <c r="AE103">
+        <v>5</v>
+      </c>
+      <c r="AG103">
+        <v>2</v>
+      </c>
+      <c r="AH103">
+        <v>1</v>
+      </c>
+      <c r="AI103">
+        <v>5</v>
+      </c>
+      <c r="AJ103">
+        <v>5</v>
+      </c>
+      <c r="AK103">
+        <v>5</v>
+      </c>
+      <c r="AL103">
+        <v>3</v>
+      </c>
+      <c r="AM103">
+        <v>5</v>
+      </c>
+      <c r="AN103">
+        <v>5</v>
+      </c>
+      <c r="AO103">
+        <v>5</v>
+      </c>
+      <c r="AP103">
+        <v>5</v>
+      </c>
+      <c r="AQ103">
+        <v>8</v>
+      </c>
+      <c r="AR103">
+        <v>1</v>
+      </c>
+      <c r="AS103">
+        <v>8</v>
+      </c>
+      <c r="AT103">
+        <v>8</v>
+      </c>
+      <c r="AU103">
+        <v>1</v>
+      </c>
+      <c r="AV103">
+        <v>1</v>
+      </c>
+      <c r="AW103" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="AX103">
+        <v>1</v>
+      </c>
+      <c r="AY103" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:35:43</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:40:40</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>5.91.142.40</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>1732707640.838</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>R_8rlwDvpL1AgmCD1</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T104">
+        <v>4</v>
+      </c>
+      <c r="U104">
+        <v>3</v>
+      </c>
+      <c r="V104">
+        <v>3</v>
+      </c>
+      <c r="W104">
+        <v>1</v>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>che bisogna collaborare tutti insieme</t>
+        </is>
+      </c>
+      <c r="Y104">
+        <v>5</v>
+      </c>
+      <c r="Z104">
+        <v>5</v>
+      </c>
+      <c r="AA104">
+        <v>5</v>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>di ridurre il danneggiamento dell’ambiente</t>
+        </is>
+      </c>
+      <c r="AC104">
+        <v>3</v>
+      </c>
+      <c r="AD104">
+        <v>2</v>
+      </c>
+      <c r="AE104">
+        <v>1</v>
+      </c>
+      <c r="AF104">
+        <v>2</v>
+      </c>
+      <c r="AG104">
+        <v>4</v>
+      </c>
+      <c r="AH104">
+        <v>3</v>
+      </c>
+      <c r="AI104">
+        <v>5</v>
+      </c>
+      <c r="AJ104">
+        <v>5</v>
+      </c>
+      <c r="AK104">
+        <v>5</v>
+      </c>
+      <c r="AL104">
+        <v>2</v>
+      </c>
+      <c r="AM104">
+        <v>4</v>
+      </c>
+      <c r="AN104">
+        <v>3</v>
+      </c>
+      <c r="AO104">
+        <v>2</v>
+      </c>
+      <c r="AP104">
+        <v>3</v>
+      </c>
+      <c r="AQ104">
+        <v>8</v>
+      </c>
+      <c r="AR104">
+        <v>1</v>
+      </c>
+      <c r="AS104">
+        <v>7</v>
+      </c>
+      <c r="AT104">
+        <v>7</v>
+      </c>
+      <c r="AU104">
+        <v>6</v>
+      </c>
+      <c r="AV104">
+        <v>6</v>
+      </c>
+      <c r="AW104" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="AX104">
+        <v>1</v>
+      </c>
+      <c r="AY104" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:35:42</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:40:46</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>151.57.250.88</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>1732707647.054</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>R_8S6qcK4iBfW9aBU</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T105">
+        <v>4</v>
+      </c>
+      <c r="U105">
+        <v>3</v>
+      </c>
+      <c r="V105">
+        <v>3</v>
+      </c>
+      <c r="W105">
+        <v>1</v>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>Che bisogna collaborare</t>
+        </is>
+      </c>
+      <c r="Y105">
+        <v>5</v>
+      </c>
+      <c r="Z105">
+        <v>5</v>
+      </c>
+      <c r="AA105">
+        <v>5</v>
+      </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>La sostenibilità è ridurre il più possibile il danneggiamento dell’ambiente</t>
+        </is>
+      </c>
+      <c r="AC105">
+        <v>5</v>
+      </c>
+      <c r="AD105">
+        <v>1</v>
+      </c>
+      <c r="AE105">
+        <v>1</v>
+      </c>
+      <c r="AF105">
+        <v>5</v>
+      </c>
+      <c r="AG105">
+        <v>5</v>
+      </c>
+      <c r="AH105">
+        <v>1</v>
+      </c>
+      <c r="AI105">
+        <v>5</v>
+      </c>
+      <c r="AJ105">
+        <v>5</v>
+      </c>
+      <c r="AK105">
+        <v>5</v>
+      </c>
+      <c r="AL105">
+        <v>3</v>
+      </c>
+      <c r="AM105">
+        <v>5</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
+        <v>3</v>
+      </c>
+      <c r="AP105">
+        <v>4</v>
+      </c>
+      <c r="AQ105">
+        <v>1</v>
+      </c>
+      <c r="AR105">
+        <v>8</v>
+      </c>
+      <c r="AS105">
+        <v>1</v>
+      </c>
+      <c r="AT105">
+        <v>1</v>
+      </c>
+      <c r="AU105">
+        <v>8</v>
+      </c>
+      <c r="AV105">
+        <v>8</v>
+      </c>
+      <c r="AW105" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="AX105">
+        <v>1</v>
+      </c>
+      <c r="AY105" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:38:16</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:40:48</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>151.43.218.225</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>1732707649.402</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>R_2q3HHdPTaUXU0nN</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
+      <c r="U106">
+        <v>3</v>
+      </c>
+      <c r="V106">
+        <v>4</v>
+      </c>
+      <c r="W106">
+        <v>2</v>
+      </c>
+      <c r="Y106">
+        <v>4</v>
+      </c>
+      <c r="AA106">
+        <v>5</v>
+      </c>
+      <c r="AC106">
+        <v>2</v>
+      </c>
+      <c r="AD106">
+        <v>1</v>
+      </c>
+      <c r="AE106">
+        <v>5</v>
+      </c>
+      <c r="AF106">
+        <v>3</v>
+      </c>
+      <c r="AG106">
+        <v>1</v>
+      </c>
+      <c r="AI106">
+        <v>5</v>
+      </c>
+      <c r="AJ106">
+        <v>5</v>
+      </c>
+      <c r="AK106">
+        <v>5</v>
+      </c>
+      <c r="AL106">
+        <v>5</v>
+      </c>
+      <c r="AM106">
+        <v>4</v>
+      </c>
+      <c r="AN106">
+        <v>4</v>
+      </c>
+      <c r="AO106">
+        <v>3</v>
+      </c>
+      <c r="AP106">
+        <v>2</v>
+      </c>
+      <c r="AT106">
+        <v>8</v>
+      </c>
+      <c r="AW106" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="AX106">
+        <v>1</v>
+      </c>
+      <c r="AY106" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:35:49</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:41:15</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>151.37.108.193</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>1732707676.003</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>R_87Kh3zd3krA9Urf</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T107">
+        <v>4</v>
+      </c>
+      <c r="U107">
+        <v>3</v>
+      </c>
+      <c r="V107">
+        <v>3</v>
+      </c>
+      <c r="W107">
+        <v>1</v>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>La collaborazione</t>
+        </is>
+      </c>
+      <c r="Y107">
+        <v>5</v>
+      </c>
+      <c r="Z107">
+        <v>5</v>
+      </c>
+      <c r="AA107">
+        <v>5</v>
+      </c>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>Ridurre il più possibile danneggiamento dell’ambiente</t>
+        </is>
+      </c>
+      <c r="AC107">
+        <v>5</v>
+      </c>
+      <c r="AD107">
+        <v>3</v>
+      </c>
+      <c r="AE107">
+        <v>3</v>
+      </c>
+      <c r="AF107">
+        <v>5</v>
+      </c>
+      <c r="AG107">
+        <v>4</v>
+      </c>
+      <c r="AH107">
+        <v>3</v>
+      </c>
+      <c r="AI107">
+        <v>5</v>
+      </c>
+      <c r="AJ107">
+        <v>5</v>
+      </c>
+      <c r="AK107">
+        <v>5</v>
+      </c>
+      <c r="AL107">
+        <v>4</v>
+      </c>
+      <c r="AM107">
+        <v>4</v>
+      </c>
+      <c r="AN107">
+        <v>4</v>
+      </c>
+      <c r="AO107">
+        <v>3</v>
+      </c>
+      <c r="AP107">
+        <v>5</v>
+      </c>
+      <c r="AQ107">
+        <v>6</v>
+      </c>
+      <c r="AR107">
+        <v>2</v>
+      </c>
+      <c r="AS107">
+        <v>8</v>
+      </c>
+      <c r="AT107">
+        <v>6</v>
+      </c>
+      <c r="AU107">
+        <v>7</v>
+      </c>
+      <c r="AV107">
+        <v>6</v>
+      </c>
+      <c r="AW107" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="AX107">
+        <v>1</v>
+      </c>
+      <c r="AY107" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:36:27</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:41:26</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>78.208.179.70</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>1732707687.189</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>R_8VIiB5AVeK47yA9</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>45.4722</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>9.1922</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T108">
+        <v>1</v>
+      </c>
+      <c r="U108">
+        <v>3</v>
+      </c>
+      <c r="V108">
+        <v>4</v>
+      </c>
+      <c r="W108">
+        <v>1</v>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>Che è necessario collaborare per creare un ambiente sostenibile</t>
+        </is>
+      </c>
+      <c r="Y108">
+        <v>4</v>
+      </c>
+      <c r="Z108">
+        <v>1</v>
+      </c>
+      <c r="AA108">
+        <v>5</v>
+      </c>
+      <c r="AC108">
+        <v>4</v>
+      </c>
+      <c r="AD108">
+        <v>3</v>
+      </c>
+      <c r="AE108">
+        <v>2</v>
+      </c>
+      <c r="AF108">
+        <v>2</v>
+      </c>
+      <c r="AG108">
+        <v>4</v>
+      </c>
+      <c r="AH108">
+        <v>4</v>
+      </c>
+      <c r="AI108">
+        <v>4</v>
+      </c>
+      <c r="AJ108">
+        <v>5</v>
+      </c>
+      <c r="AK108">
+        <v>3</v>
+      </c>
+      <c r="AL108">
+        <v>4</v>
+      </c>
+      <c r="AM108">
+        <v>3</v>
+      </c>
+      <c r="AN108">
+        <v>5</v>
+      </c>
+      <c r="AO108">
+        <v>2</v>
+      </c>
+      <c r="AP108">
+        <v>4</v>
+      </c>
+      <c r="AQ108">
+        <v>7</v>
+      </c>
+      <c r="AR108">
+        <v>2</v>
+      </c>
+      <c r="AS108">
+        <v>6</v>
+      </c>
+      <c r="AT108">
+        <v>1</v>
+      </c>
+      <c r="AU108">
+        <v>8</v>
+      </c>
+      <c r="AV108">
+        <v>2</v>
+      </c>
+      <c r="AW108" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="AX108">
+        <v>1</v>
+      </c>
+      <c r="AY108" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:35:51</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:42:37</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>5.91.140.149</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>1732707757.684</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>R_8h0IyARECsrw2JS</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T109">
+        <v>5</v>
+      </c>
+      <c r="U109">
+        <v>3</v>
+      </c>
+      <c r="V109">
+        <v>4</v>
+      </c>
+      <c r="W109">
+        <v>1</v>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>Si ho capitol che biography colaborare di pic con I compagni</t>
+        </is>
+      </c>
+      <c r="Y109">
+        <v>5</v>
+      </c>
+      <c r="Z109">
+        <v>1</v>
+      </c>
+      <c r="AA109">
+        <v>5</v>
+      </c>
+      <c r="AC109">
+        <v>3</v>
+      </c>
+      <c r="AD109">
+        <v>3</v>
+      </c>
+      <c r="AE109">
+        <v>2</v>
+      </c>
+      <c r="AF109">
+        <v>4</v>
+      </c>
+      <c r="AG109">
+        <v>2</v>
+      </c>
+      <c r="AH109">
+        <v>3</v>
+      </c>
+      <c r="AL109">
+        <v>4</v>
+      </c>
+      <c r="AM109">
+        <v>5</v>
+      </c>
+      <c r="AN109">
+        <v>4</v>
+      </c>
+      <c r="AO109">
+        <v>3</v>
+      </c>
+      <c r="AP109">
+        <v>5</v>
+      </c>
+      <c r="AW109" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="AX109">
+        <v>1</v>
+      </c>
+      <c r="AY109" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:36:17</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:42:59</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5.91.244.238</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>1732707779.909</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>R_2f9aMikPuRfK7O7</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>37.4925</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>15.0701</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
+        <v>3</v>
+      </c>
+      <c r="V110">
+        <v>4</v>
+      </c>
+      <c r="W110">
+        <v>1</v>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>Ho imparato che bisogna mettere più contributo comune per permettere di ottenere più pascolo per le mucche</t>
+        </is>
+      </c>
+      <c r="Y110">
+        <v>3</v>
+      </c>
+      <c r="Z110">
+        <v>3</v>
+      </c>
+      <c r="AA110">
+        <v>2</v>
+      </c>
+      <c r="AB110" t="inlineStr">
+        <is>
+          <t>sostenere qualcosa come una persona o un lavoro</t>
+        </is>
+      </c>
+      <c r="AC110">
+        <v>4</v>
+      </c>
+      <c r="AD110">
+        <v>2</v>
+      </c>
+      <c r="AE110">
+        <v>3</v>
+      </c>
+      <c r="AF110">
+        <v>3</v>
+      </c>
+      <c r="AG110">
+        <v>3</v>
+      </c>
+      <c r="AH110">
+        <v>2</v>
+      </c>
+      <c r="AI110">
+        <v>4</v>
+      </c>
+      <c r="AJ110">
+        <v>4</v>
+      </c>
+      <c r="AK110">
+        <v>3</v>
+      </c>
+      <c r="AL110">
+        <v>3</v>
+      </c>
+      <c r="AM110">
+        <v>4</v>
+      </c>
+      <c r="AN110">
+        <v>3</v>
+      </c>
+      <c r="AO110">
+        <v>3</v>
+      </c>
+      <c r="AP110">
+        <v>3</v>
+      </c>
+      <c r="AQ110">
+        <v>6</v>
+      </c>
+      <c r="AR110">
+        <v>2</v>
+      </c>
+      <c r="AS110">
+        <v>6</v>
+      </c>
+      <c r="AT110">
+        <v>2</v>
+      </c>
+      <c r="AU110">
+        <v>2</v>
+      </c>
+      <c r="AV110">
+        <v>6</v>
+      </c>
+      <c r="AW110" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="AX110">
+        <v>1</v>
+      </c>
+      <c r="AY110" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:36:27</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:43:02</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>151.43.218.225</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>1732707783.352</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>R_8911eoEvaZXKOBP</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T111">
+        <v>2</v>
+      </c>
+      <c r="U111">
+        <v>3</v>
+      </c>
+      <c r="V111">
+        <v>3</v>
+      </c>
+      <c r="W111">
+        <v>2</v>
+      </c>
+      <c r="Y111">
+        <v>5</v>
+      </c>
+      <c r="Z111">
+        <v>1</v>
+      </c>
+      <c r="AA111">
+        <v>5</v>
+      </c>
+      <c r="AC111">
+        <v>2</v>
+      </c>
+      <c r="AD111">
+        <v>5</v>
+      </c>
+      <c r="AE111">
+        <v>3</v>
+      </c>
+      <c r="AF111">
+        <v>3</v>
+      </c>
+      <c r="AG111">
+        <v>1</v>
+      </c>
+      <c r="AH111">
+        <v>3</v>
+      </c>
+      <c r="AI111">
+        <v>5</v>
+      </c>
+      <c r="AJ111">
+        <v>5</v>
+      </c>
+      <c r="AK111">
+        <v>5</v>
+      </c>
+      <c r="AL111">
+        <v>5</v>
+      </c>
+      <c r="AM111">
+        <v>5</v>
+      </c>
+      <c r="AN111">
+        <v>3</v>
+      </c>
+      <c r="AO111">
+        <v>4</v>
+      </c>
+      <c r="AP111">
+        <v>4</v>
+      </c>
+      <c r="AQ111">
+        <v>7</v>
+      </c>
+      <c r="AR111">
+        <v>6</v>
+      </c>
+      <c r="AS111">
+        <v>8</v>
+      </c>
+      <c r="AT111">
+        <v>8</v>
+      </c>
+      <c r="AU111">
+        <v>7</v>
+      </c>
+      <c r="AV111">
+        <v>2</v>
+      </c>
+      <c r="AW111" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="AX111">
+        <v>1</v>
+      </c>
+      <c r="AY111" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:35:42</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:43:07</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>37.163.54.206</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>1732707787.546</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>R_27GVr9grygv7n21</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T112">
+        <v>2</v>
+      </c>
+      <c r="U112">
+        <v>3</v>
+      </c>
+      <c r="V112">
+        <v>4</v>
+      </c>
+      <c r="W112">
+        <v>1</v>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ho imparato che bisogna mettere più contributo comune per permettere di ottenere più pascolo. _x000D_
+</t>
+        </is>
+      </c>
+      <c r="Y112">
+        <v>3</v>
+      </c>
+      <c r="Z112">
+        <v>2</v>
+      </c>
+      <c r="AA112">
+        <v>2</v>
+      </c>
+      <c r="AB112" t="inlineStr">
+        <is>
+          <t>Sostenere, una persona, un lavoro o un progetto</t>
+        </is>
+      </c>
+      <c r="AC112">
+        <v>3</v>
+      </c>
+      <c r="AD112">
+        <v>2</v>
+      </c>
+      <c r="AE112">
+        <v>2</v>
+      </c>
+      <c r="AF112">
+        <v>3</v>
+      </c>
+      <c r="AG112">
+        <v>3</v>
+      </c>
+      <c r="AH112">
+        <v>1</v>
+      </c>
+      <c r="AI112">
+        <v>5</v>
+      </c>
+      <c r="AJ112">
+        <v>5</v>
+      </c>
+      <c r="AK112">
+        <v>5</v>
+      </c>
+      <c r="AL112">
+        <v>4</v>
+      </c>
+      <c r="AM112">
+        <v>5</v>
+      </c>
+      <c r="AN112">
+        <v>4</v>
+      </c>
+      <c r="AO112">
+        <v>4</v>
+      </c>
+      <c r="AP112">
+        <v>5</v>
+      </c>
+      <c r="AQ112">
+        <v>7</v>
+      </c>
+      <c r="AR112">
+        <v>2</v>
+      </c>
+      <c r="AS112">
+        <v>6</v>
+      </c>
+      <c r="AT112">
+        <v>6</v>
+      </c>
+      <c r="AU112">
+        <v>6</v>
+      </c>
+      <c r="AV112">
+        <v>6</v>
+      </c>
+      <c r="AW112" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="AX112">
+        <v>1</v>
+      </c>
+      <c r="AY112" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:40:08</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2024-11-27 11:43:13</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>78.211.195.11</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>1732707794.108</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>R_8d9Mo3ypBC1zTUJ</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T113">
+        <v>5</v>
+      </c>
+      <c r="U113">
+        <v>4</v>
+      </c>
+      <c r="V113">
+        <v>4</v>
+      </c>
+      <c r="W113">
+        <v>1</v>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>Che si deve collaborare di più con i compagni</t>
+        </is>
+      </c>
+      <c r="Y113">
+        <v>2</v>
+      </c>
+      <c r="Z113">
+        <v>5</v>
+      </c>
+      <c r="AC113">
+        <v>2</v>
+      </c>
+      <c r="AI113">
+        <v>5</v>
+      </c>
+      <c r="AL113">
+        <v>5</v>
+      </c>
+      <c r="AM113">
+        <v>5</v>
+      </c>
+      <c r="AN113">
+        <v>5</v>
+      </c>
+      <c r="AO113">
+        <v>5</v>
+      </c>
+      <c r="AP113">
+        <v>3</v>
+      </c>
+      <c r="AW113" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="AX113">
+        <v>1</v>
+      </c>
+      <c r="AY113" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_analysis/df_studenti.xlsx
+++ b/data_analysis/df_studenti.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY113"/>
+  <dimension ref="A1:AY134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19545,6 +19545,3715 @@
         </is>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:05:38</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:07:45</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>93.38.128.250</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>1733310466.06</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>R_25AftgqpH849FTX</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>45.4722</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>9.1922</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T114">
+        <v>3</v>
+      </c>
+      <c r="U114">
+        <v>5</v>
+      </c>
+      <c r="V114">
+        <v>5</v>
+      </c>
+      <c r="W114">
+        <v>1</v>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>a gestire soldi</t>
+        </is>
+      </c>
+      <c r="Y114">
+        <v>5</v>
+      </c>
+      <c r="Z114">
+        <v>5</v>
+      </c>
+      <c r="AA114">
+        <v>5</v>
+      </c>
+      <c r="AC114">
+        <v>5</v>
+      </c>
+      <c r="AD114">
+        <v>5</v>
+      </c>
+      <c r="AE114">
+        <v>5</v>
+      </c>
+      <c r="AF114">
+        <v>5</v>
+      </c>
+      <c r="AG114">
+        <v>5</v>
+      </c>
+      <c r="AH114">
+        <v>5</v>
+      </c>
+      <c r="AI114">
+        <v>5</v>
+      </c>
+      <c r="AJ114">
+        <v>5</v>
+      </c>
+      <c r="AK114">
+        <v>5</v>
+      </c>
+      <c r="AL114">
+        <v>5</v>
+      </c>
+      <c r="AM114">
+        <v>5</v>
+      </c>
+      <c r="AN114">
+        <v>5</v>
+      </c>
+      <c r="AO114">
+        <v>5</v>
+      </c>
+      <c r="AP114">
+        <v>5</v>
+      </c>
+      <c r="AQ114">
+        <v>8</v>
+      </c>
+      <c r="AR114">
+        <v>8</v>
+      </c>
+      <c r="AS114">
+        <v>8</v>
+      </c>
+      <c r="AT114">
+        <v>8</v>
+      </c>
+      <c r="AU114">
+        <v>8</v>
+      </c>
+      <c r="AV114">
+        <v>8</v>
+      </c>
+      <c r="AW114" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX114">
+        <v>1</v>
+      </c>
+      <c r="AY114" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:04:47</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:08:58</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>151.19.34.144</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>1733310538.823</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>R_2EfCeQwBvesaFFN</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T115">
+        <v>4</v>
+      </c>
+      <c r="U115">
+        <v>2</v>
+      </c>
+      <c r="V115">
+        <v>3</v>
+      </c>
+      <c r="W115">
+        <v>1</v>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>Ognuno pensa per sé stesso</t>
+        </is>
+      </c>
+      <c r="Y115">
+        <v>5</v>
+      </c>
+      <c r="Z115">
+        <v>5</v>
+      </c>
+      <c r="AA115">
+        <v>5</v>
+      </c>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>Aiutare l’ambiente</t>
+        </is>
+      </c>
+      <c r="AC115">
+        <v>5</v>
+      </c>
+      <c r="AD115">
+        <v>4</v>
+      </c>
+      <c r="AE115">
+        <v>5</v>
+      </c>
+      <c r="AF115">
+        <v>4</v>
+      </c>
+      <c r="AG115">
+        <v>4</v>
+      </c>
+      <c r="AH115">
+        <v>3</v>
+      </c>
+      <c r="AI115">
+        <v>5</v>
+      </c>
+      <c r="AJ115">
+        <v>5</v>
+      </c>
+      <c r="AK115">
+        <v>5</v>
+      </c>
+      <c r="AL115">
+        <v>4</v>
+      </c>
+      <c r="AM115">
+        <v>5</v>
+      </c>
+      <c r="AN115">
+        <v>4</v>
+      </c>
+      <c r="AO115">
+        <v>4</v>
+      </c>
+      <c r="AP115">
+        <v>5</v>
+      </c>
+      <c r="AQ115">
+        <v>7</v>
+      </c>
+      <c r="AR115">
+        <v>7</v>
+      </c>
+      <c r="AS115">
+        <v>8</v>
+      </c>
+      <c r="AT115">
+        <v>7</v>
+      </c>
+      <c r="AU115">
+        <v>7</v>
+      </c>
+      <c r="AV115">
+        <v>2</v>
+      </c>
+      <c r="AW115" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX115">
+        <v>1</v>
+      </c>
+      <c r="AY115" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:04:54</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:09:19</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>91.80.12.165</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>1733310560.203</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>R_8QoUuai4bu5pt3D</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T116">
+        <v>4</v>
+      </c>
+      <c r="U116">
+        <v>4</v>
+      </c>
+      <c r="V116">
+        <v>5</v>
+      </c>
+      <c r="W116">
+        <v>1</v>
+      </c>
+      <c r="Y116">
+        <v>5</v>
+      </c>
+      <c r="Z116">
+        <v>1</v>
+      </c>
+      <c r="AA116">
+        <v>5</v>
+      </c>
+      <c r="AB116" t="inlineStr">
+        <is>
+          <t>aiutare l’ambiente</t>
+        </is>
+      </c>
+      <c r="AC116">
+        <v>4</v>
+      </c>
+      <c r="AD116">
+        <v>1</v>
+      </c>
+      <c r="AE116">
+        <v>1</v>
+      </c>
+      <c r="AF116">
+        <v>1</v>
+      </c>
+      <c r="AG116">
+        <v>1</v>
+      </c>
+      <c r="AH116">
+        <v>1</v>
+      </c>
+      <c r="AI116">
+        <v>5</v>
+      </c>
+      <c r="AJ116">
+        <v>5</v>
+      </c>
+      <c r="AK116">
+        <v>5</v>
+      </c>
+      <c r="AL116">
+        <v>5</v>
+      </c>
+      <c r="AM116">
+        <v>5</v>
+      </c>
+      <c r="AN116">
+        <v>5</v>
+      </c>
+      <c r="AO116">
+        <v>5</v>
+      </c>
+      <c r="AP116">
+        <v>4</v>
+      </c>
+      <c r="AQ116">
+        <v>8</v>
+      </c>
+      <c r="AR116">
+        <v>1</v>
+      </c>
+      <c r="AS116">
+        <v>8</v>
+      </c>
+      <c r="AT116">
+        <v>8</v>
+      </c>
+      <c r="AU116">
+        <v>8</v>
+      </c>
+      <c r="AV116">
+        <v>1</v>
+      </c>
+      <c r="AW116" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX116">
+        <v>1</v>
+      </c>
+      <c r="AY116" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:05:44</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:09:21</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>78.210.64.69</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>1733310561.924</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>R_22rdQeC89UlXjO7</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>45.4722</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>9.1922</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T117">
+        <v>4</v>
+      </c>
+      <c r="U117">
+        <v>3</v>
+      </c>
+      <c r="V117">
+        <v>4</v>
+      </c>
+      <c r="W117">
+        <v>1</v>
+      </c>
+      <c r="Y117">
+        <v>5</v>
+      </c>
+      <c r="Z117">
+        <v>5</v>
+      </c>
+      <c r="AA117">
+        <v>5</v>
+      </c>
+      <c r="AB117" t="inlineStr">
+        <is>
+          <t>Aiutare ambiente</t>
+        </is>
+      </c>
+      <c r="AC117">
+        <v>3</v>
+      </c>
+      <c r="AD117">
+        <v>2</v>
+      </c>
+      <c r="AE117">
+        <v>3</v>
+      </c>
+      <c r="AF117">
+        <v>2</v>
+      </c>
+      <c r="AG117">
+        <v>3</v>
+      </c>
+      <c r="AH117">
+        <v>2</v>
+      </c>
+      <c r="AI117">
+        <v>5</v>
+      </c>
+      <c r="AJ117">
+        <v>5</v>
+      </c>
+      <c r="AK117">
+        <v>5</v>
+      </c>
+      <c r="AL117">
+        <v>4</v>
+      </c>
+      <c r="AM117">
+        <v>5</v>
+      </c>
+      <c r="AN117">
+        <v>4</v>
+      </c>
+      <c r="AO117">
+        <v>4</v>
+      </c>
+      <c r="AP117">
+        <v>5</v>
+      </c>
+      <c r="AQ117">
+        <v>7</v>
+      </c>
+      <c r="AR117">
+        <v>1</v>
+      </c>
+      <c r="AS117">
+        <v>7</v>
+      </c>
+      <c r="AT117">
+        <v>6</v>
+      </c>
+      <c r="AU117">
+        <v>2</v>
+      </c>
+      <c r="AV117">
+        <v>2</v>
+      </c>
+      <c r="AW117" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX117">
+        <v>1</v>
+      </c>
+      <c r="AY117" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:04:51</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:09:25</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>37.163.194.17</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>1733310565.973</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>R_8IiNMmXLLBtMNWk</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T118">
+        <v>2</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
+        <v>5</v>
+      </c>
+      <c r="W118">
+        <v>2</v>
+      </c>
+      <c r="Y118">
+        <v>5</v>
+      </c>
+      <c r="Z118">
+        <v>5</v>
+      </c>
+      <c r="AA118">
+        <v>5</v>
+      </c>
+      <c r="AB118" t="inlineStr">
+        <is>
+          <t>Salvaguardare il pianeta</t>
+        </is>
+      </c>
+      <c r="AC118">
+        <v>5</v>
+      </c>
+      <c r="AD118">
+        <v>5</v>
+      </c>
+      <c r="AE118">
+        <v>2</v>
+      </c>
+      <c r="AF118">
+        <v>3</v>
+      </c>
+      <c r="AH118">
+        <v>1</v>
+      </c>
+      <c r="AI118">
+        <v>5</v>
+      </c>
+      <c r="AJ118">
+        <v>4</v>
+      </c>
+      <c r="AK118">
+        <v>1</v>
+      </c>
+      <c r="AL118">
+        <v>3</v>
+      </c>
+      <c r="AM118">
+        <v>3</v>
+      </c>
+      <c r="AN118">
+        <v>5</v>
+      </c>
+      <c r="AO118">
+        <v>2</v>
+      </c>
+      <c r="AP118">
+        <v>5</v>
+      </c>
+      <c r="AQ118">
+        <v>6</v>
+      </c>
+      <c r="AR118">
+        <v>6</v>
+      </c>
+      <c r="AT118">
+        <v>1</v>
+      </c>
+      <c r="AV118">
+        <v>8</v>
+      </c>
+      <c r="AW118" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX118">
+        <v>1</v>
+      </c>
+      <c r="AY118" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:04:58</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:10:19</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>5.90.74.76</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>1733310620.249</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>R_24nLhjCw3KXle5Z</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T119">
+        <v>4</v>
+      </c>
+      <c r="U119">
+        <v>4</v>
+      </c>
+      <c r="V119">
+        <v>3</v>
+      </c>
+      <c r="W119">
+        <v>1</v>
+      </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>Che c'è un distacco massiccio tra qualità e quantità, deve essere tutto un 50 e 50</t>
+        </is>
+      </c>
+      <c r="Y119">
+        <v>4</v>
+      </c>
+      <c r="Z119">
+        <v>4</v>
+      </c>
+      <c r="AA119">
+        <v>1</v>
+      </c>
+      <c r="AB119" t="inlineStr">
+        <is>
+          <t>Aiutare l'ambiente, tenerlo in buona salute, aiutare un qualcosa</t>
+        </is>
+      </c>
+      <c r="AC119">
+        <v>4</v>
+      </c>
+      <c r="AD119">
+        <v>2</v>
+      </c>
+      <c r="AE119">
+        <v>3</v>
+      </c>
+      <c r="AF119">
+        <v>2</v>
+      </c>
+      <c r="AG119">
+        <v>4</v>
+      </c>
+      <c r="AH119">
+        <v>3</v>
+      </c>
+      <c r="AI119">
+        <v>5</v>
+      </c>
+      <c r="AJ119">
+        <v>4</v>
+      </c>
+      <c r="AK119">
+        <v>3</v>
+      </c>
+      <c r="AL119">
+        <v>2</v>
+      </c>
+      <c r="AM119">
+        <v>4</v>
+      </c>
+      <c r="AN119">
+        <v>4</v>
+      </c>
+      <c r="AO119">
+        <v>3</v>
+      </c>
+      <c r="AP119">
+        <v>5</v>
+      </c>
+      <c r="AQ119">
+        <v>1</v>
+      </c>
+      <c r="AR119">
+        <v>6</v>
+      </c>
+      <c r="AS119">
+        <v>1</v>
+      </c>
+      <c r="AT119">
+        <v>2</v>
+      </c>
+      <c r="AU119">
+        <v>2</v>
+      </c>
+      <c r="AV119">
+        <v>1</v>
+      </c>
+      <c r="AW119" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX119">
+        <v>1</v>
+      </c>
+      <c r="AY119" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:06:14</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:10:27</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>5.91.152.122</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>1733310627.909</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>R_8f1FFsbG8EqaonL</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T120">
+        <v>3</v>
+      </c>
+      <c r="U120">
+        <v>3</v>
+      </c>
+      <c r="V120">
+        <v>4</v>
+      </c>
+      <c r="W120">
+        <v>1</v>
+      </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>Di utilizzare poche mucche e più prato e di comperare con gli altri tavoli</t>
+        </is>
+      </c>
+      <c r="Y120">
+        <v>3</v>
+      </c>
+      <c r="Z120">
+        <v>4</v>
+      </c>
+      <c r="AA120">
+        <v>2</v>
+      </c>
+      <c r="AC120">
+        <v>3</v>
+      </c>
+      <c r="AD120">
+        <v>3</v>
+      </c>
+      <c r="AE120">
+        <v>3</v>
+      </c>
+      <c r="AF120">
+        <v>3</v>
+      </c>
+      <c r="AH120">
+        <v>3</v>
+      </c>
+      <c r="AI120">
+        <v>2</v>
+      </c>
+      <c r="AJ120">
+        <v>2</v>
+      </c>
+      <c r="AK120">
+        <v>2</v>
+      </c>
+      <c r="AL120">
+        <v>2</v>
+      </c>
+      <c r="AM120">
+        <v>3</v>
+      </c>
+      <c r="AN120">
+        <v>2</v>
+      </c>
+      <c r="AO120">
+        <v>2</v>
+      </c>
+      <c r="AP120">
+        <v>4</v>
+      </c>
+      <c r="AQ120">
+        <v>7</v>
+      </c>
+      <c r="AR120">
+        <v>7</v>
+      </c>
+      <c r="AS120">
+        <v>6</v>
+      </c>
+      <c r="AT120">
+        <v>7</v>
+      </c>
+      <c r="AU120">
+        <v>7</v>
+      </c>
+      <c r="AV120">
+        <v>6</v>
+      </c>
+      <c r="AW120" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX120">
+        <v>1</v>
+      </c>
+      <c r="AY120" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:05:54</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:10:40</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>37.163.234.133</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>1733310641.38</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>R_8Miin1H3MOmHYOZ</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T121">
+        <v>1</v>
+      </c>
+      <c r="U121">
+        <v>3</v>
+      </c>
+      <c r="V121">
+        <v>2</v>
+      </c>
+      <c r="W121">
+        <v>1</v>
+      </c>
+      <c r="Y121">
+        <v>5</v>
+      </c>
+      <c r="Z121">
+        <v>5</v>
+      </c>
+      <c r="AA121">
+        <v>5</v>
+      </c>
+      <c r="AB121" t="inlineStr">
+        <is>
+          <t>La sostenibilità è un concetto che indica la capacità di soddisfare i bisogni del presente senza compromettere la possibilità delle generazioni future di soddisfare i propri. Si basa su tre dimensioni fondamentali, spesso chiamate le “tre P”:</t>
+        </is>
+      </c>
+      <c r="AC121">
+        <v>2</v>
+      </c>
+      <c r="AD121">
+        <v>1</v>
+      </c>
+      <c r="AE121">
+        <v>1</v>
+      </c>
+      <c r="AF121">
+        <v>1</v>
+      </c>
+      <c r="AG121">
+        <v>1</v>
+      </c>
+      <c r="AH121">
+        <v>1</v>
+      </c>
+      <c r="AI121">
+        <v>5</v>
+      </c>
+      <c r="AJ121">
+        <v>5</v>
+      </c>
+      <c r="AK121">
+        <v>5</v>
+      </c>
+      <c r="AL121">
+        <v>4</v>
+      </c>
+      <c r="AM121">
+        <v>4</v>
+      </c>
+      <c r="AN121">
+        <v>4</v>
+      </c>
+      <c r="AO121">
+        <v>4</v>
+      </c>
+      <c r="AP121">
+        <v>4</v>
+      </c>
+      <c r="AQ121">
+        <v>6</v>
+      </c>
+      <c r="AR121">
+        <v>1</v>
+      </c>
+      <c r="AS121">
+        <v>2</v>
+      </c>
+      <c r="AU121">
+        <v>1</v>
+      </c>
+      <c r="AV121">
+        <v>2</v>
+      </c>
+      <c r="AW121" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX121">
+        <v>1</v>
+      </c>
+      <c r="AY121" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:05:14</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:10:52</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>5.91.44.172</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>1733310652.655</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>R_8CVLfamo4ZzIHYK</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T122">
+        <v>3</v>
+      </c>
+      <c r="U122">
+        <v>5</v>
+      </c>
+      <c r="V122">
+        <v>4</v>
+      </c>
+      <c r="W122">
+        <v>2</v>
+      </c>
+      <c r="Y122">
+        <v>5</v>
+      </c>
+      <c r="Z122">
+        <v>5</v>
+      </c>
+      <c r="AA122">
+        <v>4</v>
+      </c>
+      <c r="AB122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trovare delle soluzioni per migliorare l’ambiente _x000D_
+</t>
+        </is>
+      </c>
+      <c r="AC122">
+        <v>4</v>
+      </c>
+      <c r="AD122">
+        <v>3</v>
+      </c>
+      <c r="AE122">
+        <v>3</v>
+      </c>
+      <c r="AF122">
+        <v>3</v>
+      </c>
+      <c r="AG122">
+        <v>3</v>
+      </c>
+      <c r="AH122">
+        <v>3</v>
+      </c>
+      <c r="AI122">
+        <v>5</v>
+      </c>
+      <c r="AJ122">
+        <v>5</v>
+      </c>
+      <c r="AK122">
+        <v>3</v>
+      </c>
+      <c r="AL122">
+        <v>3</v>
+      </c>
+      <c r="AM122">
+        <v>3</v>
+      </c>
+      <c r="AN122">
+        <v>3</v>
+      </c>
+      <c r="AO122">
+        <v>3</v>
+      </c>
+      <c r="AP122">
+        <v>3</v>
+      </c>
+      <c r="AQ122">
+        <v>6</v>
+      </c>
+      <c r="AR122">
+        <v>6</v>
+      </c>
+      <c r="AS122">
+        <v>6</v>
+      </c>
+      <c r="AT122">
+        <v>6</v>
+      </c>
+      <c r="AU122">
+        <v>6</v>
+      </c>
+      <c r="AV122">
+        <v>6</v>
+      </c>
+      <c r="AW122" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX122">
+        <v>1</v>
+      </c>
+      <c r="AY122" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:05:20</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:10:58</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>78.208.36.198</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>1733310658.847</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>R_8JJm4d6dPlInruO</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>45.4722</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>9.1922</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T123">
+        <v>1</v>
+      </c>
+      <c r="U123">
+        <v>5</v>
+      </c>
+      <c r="V123">
+        <v>3</v>
+      </c>
+      <c r="W123">
+        <v>2</v>
+      </c>
+      <c r="Y123">
+        <v>4</v>
+      </c>
+      <c r="Z123">
+        <v>5</v>
+      </c>
+      <c r="AA123">
+        <v>5</v>
+      </c>
+      <c r="AB123" t="inlineStr">
+        <is>
+          <t>la sostenibilità è un modo di vivere seguendo regole e istruzioni per garantire la sopravvivenza e continuità dell' ecosistema nel quale viviamo.</t>
+        </is>
+      </c>
+      <c r="AC123">
+        <v>4</v>
+      </c>
+      <c r="AD123">
+        <v>2</v>
+      </c>
+      <c r="AE123">
+        <v>4</v>
+      </c>
+      <c r="AF123">
+        <v>3</v>
+      </c>
+      <c r="AG123">
+        <v>4</v>
+      </c>
+      <c r="AH123">
+        <v>1</v>
+      </c>
+      <c r="AI123">
+        <v>4</v>
+      </c>
+      <c r="AJ123">
+        <v>4</v>
+      </c>
+      <c r="AK123">
+        <v>3</v>
+      </c>
+      <c r="AL123">
+        <v>4</v>
+      </c>
+      <c r="AM123">
+        <v>2</v>
+      </c>
+      <c r="AN123">
+        <v>5</v>
+      </c>
+      <c r="AO123">
+        <v>3</v>
+      </c>
+      <c r="AP123">
+        <v>4</v>
+      </c>
+      <c r="AQ123">
+        <v>7</v>
+      </c>
+      <c r="AR123">
+        <v>2</v>
+      </c>
+      <c r="AS123">
+        <v>2</v>
+      </c>
+      <c r="AT123">
+        <v>6</v>
+      </c>
+      <c r="AU123">
+        <v>7</v>
+      </c>
+      <c r="AV123">
+        <v>2</v>
+      </c>
+      <c r="AW123" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX123">
+        <v>1</v>
+      </c>
+      <c r="AY123" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:05:23</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:11:18</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>78.210.254.251</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>1733310679.262</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>R_2IXFTWgnK79fXca</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>45.4742</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>9.1994</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T124">
+        <v>1</v>
+      </c>
+      <c r="U124">
+        <v>5</v>
+      </c>
+      <c r="V124">
+        <v>5</v>
+      </c>
+      <c r="Y124">
+        <v>5</v>
+      </c>
+      <c r="Z124">
+        <v>5</v>
+      </c>
+      <c r="AA124">
+        <v>5</v>
+      </c>
+      <c r="AB124" t="inlineStr">
+        <is>
+          <t>La sostenibilità è l’equilibrio tra ambiente, economia e società per soddisfare i bisogni presenti senza compromettere il futuro.</t>
+        </is>
+      </c>
+      <c r="AH124">
+        <v>1</v>
+      </c>
+      <c r="AI124">
+        <v>5</v>
+      </c>
+      <c r="AJ124">
+        <v>5</v>
+      </c>
+      <c r="AK124">
+        <v>5</v>
+      </c>
+      <c r="AL124">
+        <v>4</v>
+      </c>
+      <c r="AM124">
+        <v>5</v>
+      </c>
+      <c r="AN124">
+        <v>5</v>
+      </c>
+      <c r="AO124">
+        <v>1</v>
+      </c>
+      <c r="AP124">
+        <v>5</v>
+      </c>
+      <c r="AQ124">
+        <v>8</v>
+      </c>
+      <c r="AR124">
+        <v>1</v>
+      </c>
+      <c r="AS124">
+        <v>8</v>
+      </c>
+      <c r="AT124">
+        <v>1</v>
+      </c>
+      <c r="AU124">
+        <v>8</v>
+      </c>
+      <c r="AV124">
+        <v>1</v>
+      </c>
+      <c r="AW124" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX124">
+        <v>1</v>
+      </c>
+      <c r="AY124" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:04:51</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:11:53</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>5.91.60.23</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>1733310714.357</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>R_2z8CRi2Ves4Nru5</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>41.5935</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>12.6607</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T125">
+        <v>3</v>
+      </c>
+      <c r="U125">
+        <v>4</v>
+      </c>
+      <c r="V125">
+        <v>5</v>
+      </c>
+      <c r="W125">
+        <v>1</v>
+      </c>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>il modo di gestire i soldi</t>
+        </is>
+      </c>
+      <c r="Y125">
+        <v>5</v>
+      </c>
+      <c r="Z125">
+        <v>3</v>
+      </c>
+      <c r="AA125">
+        <v>5</v>
+      </c>
+      <c r="AB125" t="inlineStr">
+        <is>
+          <t>sostenere i compagni nelle loro scelte</t>
+        </is>
+      </c>
+      <c r="AC125">
+        <v>3</v>
+      </c>
+      <c r="AD125">
+        <v>3</v>
+      </c>
+      <c r="AE125">
+        <v>3</v>
+      </c>
+      <c r="AF125">
+        <v>1</v>
+      </c>
+      <c r="AG125">
+        <v>5</v>
+      </c>
+      <c r="AH125">
+        <v>1</v>
+      </c>
+      <c r="AI125">
+        <v>4</v>
+      </c>
+      <c r="AJ125">
+        <v>4</v>
+      </c>
+      <c r="AK125">
+        <v>3</v>
+      </c>
+      <c r="AL125">
+        <v>5</v>
+      </c>
+      <c r="AM125">
+        <v>5</v>
+      </c>
+      <c r="AN125">
+        <v>5</v>
+      </c>
+      <c r="AO125">
+        <v>5</v>
+      </c>
+      <c r="AP125">
+        <v>5</v>
+      </c>
+      <c r="AQ125">
+        <v>8</v>
+      </c>
+      <c r="AR125">
+        <v>1</v>
+      </c>
+      <c r="AS125">
+        <v>8</v>
+      </c>
+      <c r="AU125">
+        <v>6</v>
+      </c>
+      <c r="AV125">
+        <v>2</v>
+      </c>
+      <c r="AW125" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX125">
+        <v>1</v>
+      </c>
+      <c r="AY125" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:06:21</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:12:02</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>109.118.93.111</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>1733310722.592</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>R_2bth3ECngXwUhkl</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>45.4722</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>9.1922</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T126">
+        <v>2</v>
+      </c>
+      <c r="U126">
+        <v>3</v>
+      </c>
+      <c r="V126">
+        <v>3</v>
+      </c>
+      <c r="W126">
+        <v>2</v>
+      </c>
+      <c r="Y126">
+        <v>4</v>
+      </c>
+      <c r="Z126">
+        <v>3</v>
+      </c>
+      <c r="AA126">
+        <v>4</v>
+      </c>
+      <c r="AB126" t="inlineStr">
+        <is>
+          <t>Lavorare insieme per aiutare l'ambiente</t>
+        </is>
+      </c>
+      <c r="AC126">
+        <v>5</v>
+      </c>
+      <c r="AD126">
+        <v>2</v>
+      </c>
+      <c r="AE126">
+        <v>1</v>
+      </c>
+      <c r="AF126">
+        <v>3</v>
+      </c>
+      <c r="AG126">
+        <v>3</v>
+      </c>
+      <c r="AH126">
+        <v>1</v>
+      </c>
+      <c r="AI126">
+        <v>5</v>
+      </c>
+      <c r="AJ126">
+        <v>5</v>
+      </c>
+      <c r="AK126">
+        <v>5</v>
+      </c>
+      <c r="AL126">
+        <v>3</v>
+      </c>
+      <c r="AM126">
+        <v>5</v>
+      </c>
+      <c r="AN126">
+        <v>3</v>
+      </c>
+      <c r="AO126">
+        <v>3</v>
+      </c>
+      <c r="AP126">
+        <v>4</v>
+      </c>
+      <c r="AQ126">
+        <v>7</v>
+      </c>
+      <c r="AR126">
+        <v>6</v>
+      </c>
+      <c r="AS126">
+        <v>6</v>
+      </c>
+      <c r="AT126">
+        <v>6</v>
+      </c>
+      <c r="AU126">
+        <v>6</v>
+      </c>
+      <c r="AV126">
+        <v>6</v>
+      </c>
+      <c r="AW126" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX126">
+        <v>1</v>
+      </c>
+      <c r="AY126" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:06:10</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:12:19</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>151.57.66.242</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>1733310739.737</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>R_2gTak8dS1ZxbdWb</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T127">
+        <v>5</v>
+      </c>
+      <c r="U127">
+        <v>4</v>
+      </c>
+      <c r="V127">
+        <v>4</v>
+      </c>
+      <c r="W127">
+        <v>1</v>
+      </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>Che non dobbiamo prendere decisioni affrettate</t>
+        </is>
+      </c>
+      <c r="Y127">
+        <v>1</v>
+      </c>
+      <c r="Z127">
+        <v>5</v>
+      </c>
+      <c r="AA127">
+        <v>5</v>
+      </c>
+      <c r="AB127" t="inlineStr">
+        <is>
+          <t>Aiutare il pianeta</t>
+        </is>
+      </c>
+      <c r="AC127">
+        <v>5</v>
+      </c>
+      <c r="AD127">
+        <v>1</v>
+      </c>
+      <c r="AE127">
+        <v>2</v>
+      </c>
+      <c r="AF127">
+        <v>3</v>
+      </c>
+      <c r="AH127">
+        <v>1</v>
+      </c>
+      <c r="AI127">
+        <v>5</v>
+      </c>
+      <c r="AJ127">
+        <v>3</v>
+      </c>
+      <c r="AK127">
+        <v>4</v>
+      </c>
+      <c r="AL127">
+        <v>4</v>
+      </c>
+      <c r="AM127">
+        <v>4</v>
+      </c>
+      <c r="AN127">
+        <v>3</v>
+      </c>
+      <c r="AO127">
+        <v>3</v>
+      </c>
+      <c r="AP127">
+        <v>3</v>
+      </c>
+      <c r="AQ127">
+        <v>6</v>
+      </c>
+      <c r="AR127">
+        <v>2</v>
+      </c>
+      <c r="AS127">
+        <v>6</v>
+      </c>
+      <c r="AT127">
+        <v>7</v>
+      </c>
+      <c r="AU127">
+        <v>2</v>
+      </c>
+      <c r="AV127">
+        <v>2</v>
+      </c>
+      <c r="AW127" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX127">
+        <v>1</v>
+      </c>
+      <c r="AY127" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:05:06</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:13:18</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>78.208.220.131</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>1733310798.966</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>R_8O1AvVTUoRgNzfF</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>45.4722</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>9.1922</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T128">
+        <v>4</v>
+      </c>
+      <c r="U128">
+        <v>4</v>
+      </c>
+      <c r="V128">
+        <v>4</v>
+      </c>
+      <c r="W128">
+        <v>1</v>
+      </c>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>Tenere in buona salute il nostro ambiente.</t>
+        </is>
+      </c>
+      <c r="Y128">
+        <v>5</v>
+      </c>
+      <c r="Z128">
+        <v>5</v>
+      </c>
+      <c r="AA128">
+        <v>5</v>
+      </c>
+      <c r="AB128" t="inlineStr">
+        <is>
+          <t>Aiutare/migliorare l'ambiente del nostro pianeta</t>
+        </is>
+      </c>
+      <c r="AC128">
+        <v>4</v>
+      </c>
+      <c r="AD128">
+        <v>3</v>
+      </c>
+      <c r="AE128">
+        <v>2</v>
+      </c>
+      <c r="AF128">
+        <v>3</v>
+      </c>
+      <c r="AG128">
+        <v>4</v>
+      </c>
+      <c r="AH128">
+        <v>2</v>
+      </c>
+      <c r="AI128">
+        <v>5</v>
+      </c>
+      <c r="AJ128">
+        <v>5</v>
+      </c>
+      <c r="AK128">
+        <v>5</v>
+      </c>
+      <c r="AL128">
+        <v>3</v>
+      </c>
+      <c r="AM128">
+        <v>5</v>
+      </c>
+      <c r="AN128">
+        <v>4</v>
+      </c>
+      <c r="AO128">
+        <v>2</v>
+      </c>
+      <c r="AP128">
+        <v>4</v>
+      </c>
+      <c r="AQ128">
+        <v>6</v>
+      </c>
+      <c r="AR128">
+        <v>6</v>
+      </c>
+      <c r="AS128">
+        <v>2</v>
+      </c>
+      <c r="AT128">
+        <v>6</v>
+      </c>
+      <c r="AU128">
+        <v>7</v>
+      </c>
+      <c r="AV128">
+        <v>7</v>
+      </c>
+      <c r="AW128" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX128">
+        <v>1</v>
+      </c>
+      <c r="AY128" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:05:32</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:13:38</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>151.47.20.123</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>1733310818.575</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>R_2I4OgOXdXWEVVMc</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T129">
+        <v>3</v>
+      </c>
+      <c r="U129">
+        <v>3</v>
+      </c>
+      <c r="V129">
+        <v>4</v>
+      </c>
+      <c r="W129">
+        <v>1</v>
+      </c>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>Ho imparato a gestire i soldi</t>
+        </is>
+      </c>
+      <c r="Y129">
+        <v>1</v>
+      </c>
+      <c r="Z129">
+        <v>5</v>
+      </c>
+      <c r="AA129">
+        <v>5</v>
+      </c>
+      <c r="AC129">
+        <v>2</v>
+      </c>
+      <c r="AD129">
+        <v>4</v>
+      </c>
+      <c r="AE129">
+        <v>2</v>
+      </c>
+      <c r="AF129">
+        <v>3</v>
+      </c>
+      <c r="AG129">
+        <v>3</v>
+      </c>
+      <c r="AH129">
+        <v>3</v>
+      </c>
+      <c r="AI129">
+        <v>5</v>
+      </c>
+      <c r="AJ129">
+        <v>5</v>
+      </c>
+      <c r="AK129">
+        <v>5</v>
+      </c>
+      <c r="AL129">
+        <v>2</v>
+      </c>
+      <c r="AM129">
+        <v>4</v>
+      </c>
+      <c r="AN129">
+        <v>3</v>
+      </c>
+      <c r="AO129">
+        <v>3</v>
+      </c>
+      <c r="AP129">
+        <v>4</v>
+      </c>
+      <c r="AQ129">
+        <v>6</v>
+      </c>
+      <c r="AR129">
+        <v>2</v>
+      </c>
+      <c r="AS129">
+        <v>2</v>
+      </c>
+      <c r="AT129">
+        <v>7</v>
+      </c>
+      <c r="AU129">
+        <v>6</v>
+      </c>
+      <c r="AV129">
+        <v>6</v>
+      </c>
+      <c r="AW129" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX129">
+        <v>1</v>
+      </c>
+      <c r="AY129" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:08:45</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:13:42</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>5.91.132.37</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>1733310823.434</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>R_8qjUNRerXWy9clO</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T130">
+        <v>2</v>
+      </c>
+      <c r="U130">
+        <v>1</v>
+      </c>
+      <c r="V130">
+        <v>4</v>
+      </c>
+      <c r="W130">
+        <v>1</v>
+      </c>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>Ho imparato come agire in modo sostenibile sull'ambiente.</t>
+        </is>
+      </c>
+      <c r="Y130">
+        <v>5</v>
+      </c>
+      <c r="Z130">
+        <v>1</v>
+      </c>
+      <c r="AA130">
+        <v>5</v>
+      </c>
+      <c r="AB130" t="inlineStr">
+        <is>
+          <t>La mia definizione di sostenibilità sono le azioni di come uno si potrebbe comportare con l'ambiente, l'impatto che ha l'uomo sull'ambiente.</t>
+        </is>
+      </c>
+      <c r="AC130">
+        <v>5</v>
+      </c>
+      <c r="AD130">
+        <v>1</v>
+      </c>
+      <c r="AE130">
+        <v>1</v>
+      </c>
+      <c r="AF130">
+        <v>1</v>
+      </c>
+      <c r="AG130">
+        <v>5</v>
+      </c>
+      <c r="AH130">
+        <v>1</v>
+      </c>
+      <c r="AI130">
+        <v>5</v>
+      </c>
+      <c r="AJ130">
+        <v>5</v>
+      </c>
+      <c r="AK130">
+        <v>5</v>
+      </c>
+      <c r="AL130">
+        <v>3</v>
+      </c>
+      <c r="AM130">
+        <v>5</v>
+      </c>
+      <c r="AN130">
+        <v>4</v>
+      </c>
+      <c r="AO130">
+        <v>4</v>
+      </c>
+      <c r="AP130">
+        <v>5</v>
+      </c>
+      <c r="AQ130">
+        <v>6</v>
+      </c>
+      <c r="AR130">
+        <v>7</v>
+      </c>
+      <c r="AS130">
+        <v>2</v>
+      </c>
+      <c r="AT130">
+        <v>2</v>
+      </c>
+      <c r="AU130">
+        <v>7</v>
+      </c>
+      <c r="AV130">
+        <v>8</v>
+      </c>
+      <c r="AW130" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX130">
+        <v>1</v>
+      </c>
+      <c r="AY130" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:05:27</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:14:02</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>151.57.136.222</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>1733310843.515</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>R_233xBZk25j7iY2Z</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T131">
+        <v>5</v>
+      </c>
+      <c r="U131">
+        <v>4</v>
+      </c>
+      <c r="V131">
+        <v>4</v>
+      </c>
+      <c r="W131">
+        <v>1</v>
+      </c>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Che non dobbiamo prendere decisioni in fretta_x000D_
+</t>
+        </is>
+      </c>
+      <c r="Y131">
+        <v>5</v>
+      </c>
+      <c r="Z131">
+        <v>5</v>
+      </c>
+      <c r="AA131">
+        <v>5</v>
+      </c>
+      <c r="AB131" t="inlineStr">
+        <is>
+          <t>Aiutare il pianeta</t>
+        </is>
+      </c>
+      <c r="AC131">
+        <v>3</v>
+      </c>
+      <c r="AD131">
+        <v>1</v>
+      </c>
+      <c r="AE131">
+        <v>4</v>
+      </c>
+      <c r="AF131">
+        <v>1</v>
+      </c>
+      <c r="AG131">
+        <v>3</v>
+      </c>
+      <c r="AH131">
+        <v>2</v>
+      </c>
+      <c r="AI131">
+        <v>5</v>
+      </c>
+      <c r="AJ131">
+        <v>5</v>
+      </c>
+      <c r="AK131">
+        <v>4</v>
+      </c>
+      <c r="AL131">
+        <v>2</v>
+      </c>
+      <c r="AM131">
+        <v>4</v>
+      </c>
+      <c r="AN131">
+        <v>1</v>
+      </c>
+      <c r="AO131">
+        <v>1</v>
+      </c>
+      <c r="AP131">
+        <v>4</v>
+      </c>
+      <c r="AQ131">
+        <v>6</v>
+      </c>
+      <c r="AR131">
+        <v>8</v>
+      </c>
+      <c r="AS131">
+        <v>1</v>
+      </c>
+      <c r="AT131">
+        <v>1</v>
+      </c>
+      <c r="AU131">
+        <v>6</v>
+      </c>
+      <c r="AV131">
+        <v>8</v>
+      </c>
+      <c r="AW131" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX131">
+        <v>1</v>
+      </c>
+      <c r="AY131" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:05:18</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:14:26</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>151.57.188.182</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>1733310867.293</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>R_8m8YFgn2gNk4SJ6</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T132">
+        <v>1</v>
+      </c>
+      <c r="U132">
+        <v>4</v>
+      </c>
+      <c r="V132">
+        <v>3</v>
+      </c>
+      <c r="W132">
+        <v>1</v>
+      </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>L importanza delle azioni</t>
+        </is>
+      </c>
+      <c r="Y132">
+        <v>5</v>
+      </c>
+      <c r="Z132">
+        <v>5</v>
+      </c>
+      <c r="AA132">
+        <v>1</v>
+      </c>
+      <c r="AB132" t="inlineStr">
+        <is>
+          <t>consiste nell'utilizzo efficiente e rispettoso delle risorse, le materie prime, l'energia e il lavoro umano; </t>
+        </is>
+      </c>
+      <c r="AC132">
+        <v>5</v>
+      </c>
+      <c r="AD132">
+        <v>1</v>
+      </c>
+      <c r="AE132">
+        <v>1</v>
+      </c>
+      <c r="AF132">
+        <v>2</v>
+      </c>
+      <c r="AG132">
+        <v>3</v>
+      </c>
+      <c r="AH132">
+        <v>1</v>
+      </c>
+      <c r="AI132">
+        <v>5</v>
+      </c>
+      <c r="AJ132">
+        <v>5</v>
+      </c>
+      <c r="AK132">
+        <v>5</v>
+      </c>
+      <c r="AL132">
+        <v>3</v>
+      </c>
+      <c r="AM132">
+        <v>4</v>
+      </c>
+      <c r="AN132">
+        <v>3</v>
+      </c>
+      <c r="AO132">
+        <v>4</v>
+      </c>
+      <c r="AP132">
+        <v>4</v>
+      </c>
+      <c r="AQ132">
+        <v>6</v>
+      </c>
+      <c r="AR132">
+        <v>2</v>
+      </c>
+      <c r="AS132">
+        <v>7</v>
+      </c>
+      <c r="AT132">
+        <v>6</v>
+      </c>
+      <c r="AU132">
+        <v>7</v>
+      </c>
+      <c r="AV132">
+        <v>1</v>
+      </c>
+      <c r="AW132" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX132">
+        <v>1</v>
+      </c>
+      <c r="AY132" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:05:11</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:14:40</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>5.91.132.189</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>1733310881.506</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>R_8S0pCf93ttaEqjf</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T133">
+        <v>5</v>
+      </c>
+      <c r="U133">
+        <v>4</v>
+      </c>
+      <c r="V133">
+        <v>4</v>
+      </c>
+      <c r="W133">
+        <v>1</v>
+      </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>Che non dobbiamo prendere decisioni in fretta</t>
+        </is>
+      </c>
+      <c r="Y133">
+        <v>1</v>
+      </c>
+      <c r="Z133">
+        <v>5</v>
+      </c>
+      <c r="AA133">
+        <v>5</v>
+      </c>
+      <c r="AB133" t="inlineStr">
+        <is>
+          <t>Aiutare pianeta</t>
+        </is>
+      </c>
+      <c r="AC133">
+        <v>3</v>
+      </c>
+      <c r="AD133">
+        <v>2</v>
+      </c>
+      <c r="AE133">
+        <v>3</v>
+      </c>
+      <c r="AF133">
+        <v>1</v>
+      </c>
+      <c r="AG133">
+        <v>3</v>
+      </c>
+      <c r="AH133">
+        <v>3</v>
+      </c>
+      <c r="AI133">
+        <v>5</v>
+      </c>
+      <c r="AJ133">
+        <v>5</v>
+      </c>
+      <c r="AK133">
+        <v>4</v>
+      </c>
+      <c r="AL133">
+        <v>2</v>
+      </c>
+      <c r="AM133">
+        <v>5</v>
+      </c>
+      <c r="AN133">
+        <v>1</v>
+      </c>
+      <c r="AO133">
+        <v>1</v>
+      </c>
+      <c r="AP133">
+        <v>4</v>
+      </c>
+      <c r="AQ133">
+        <v>6</v>
+      </c>
+      <c r="AR133">
+        <v>8</v>
+      </c>
+      <c r="AS133">
+        <v>6</v>
+      </c>
+      <c r="AT133">
+        <v>6</v>
+      </c>
+      <c r="AU133">
+        <v>2</v>
+      </c>
+      <c r="AV133">
+        <v>8</v>
+      </c>
+      <c r="AW133" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX133">
+        <v>1</v>
+      </c>
+      <c r="AY133" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:06:35</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:14:52</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>78.211.78.59</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>1733310893.509</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>R_8QnkgCkP46BZj0t</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T134">
+        <v>5</v>
+      </c>
+      <c r="U134">
+        <v>4</v>
+      </c>
+      <c r="V134">
+        <v>4</v>
+      </c>
+      <c r="W134">
+        <v>1</v>
+      </c>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>Che non dobbiamo prendere le decisioni in fretta</t>
+        </is>
+      </c>
+      <c r="Y134">
+        <v>1</v>
+      </c>
+      <c r="Z134">
+        <v>5</v>
+      </c>
+      <c r="AA134">
+        <v>5</v>
+      </c>
+      <c r="AB134" t="inlineStr">
+        <is>
+          <t>Aiutare il pianeta</t>
+        </is>
+      </c>
+      <c r="AC134">
+        <v>3</v>
+      </c>
+      <c r="AD134">
+        <v>1</v>
+      </c>
+      <c r="AE134">
+        <v>4</v>
+      </c>
+      <c r="AF134">
+        <v>1</v>
+      </c>
+      <c r="AG134">
+        <v>3</v>
+      </c>
+      <c r="AH134">
+        <v>4</v>
+      </c>
+      <c r="AI134">
+        <v>5</v>
+      </c>
+      <c r="AJ134">
+        <v>5</v>
+      </c>
+      <c r="AK134">
+        <v>4</v>
+      </c>
+      <c r="AL134">
+        <v>2</v>
+      </c>
+      <c r="AM134">
+        <v>5</v>
+      </c>
+      <c r="AN134">
+        <v>1</v>
+      </c>
+      <c r="AO134">
+        <v>1</v>
+      </c>
+      <c r="AP134">
+        <v>4</v>
+      </c>
+      <c r="AQ134">
+        <v>6</v>
+      </c>
+      <c r="AR134">
+        <v>8</v>
+      </c>
+      <c r="AS134">
+        <v>1</v>
+      </c>
+      <c r="AT134">
+        <v>1</v>
+      </c>
+      <c r="AU134">
+        <v>6</v>
+      </c>
+      <c r="AV134">
+        <v>6</v>
+      </c>
+      <c r="AW134" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX134">
+        <v>1</v>
+      </c>
+      <c r="AY134" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_analysis/df_studenti.xlsx
+++ b/data_analysis/df_studenti.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY134"/>
+  <dimension ref="A1:AY149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23254,6 +23254,2594 @@
         </is>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:13:35</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:15:29</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>151.19.83.39</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>1733314530.001</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>R_8lBFXEwRNYRliTf</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T135">
+        <v>4</v>
+      </c>
+      <c r="U135">
+        <v>1</v>
+      </c>
+      <c r="V135">
+        <v>2</v>
+      </c>
+      <c r="W135">
+        <v>2</v>
+      </c>
+      <c r="Y135">
+        <v>1</v>
+      </c>
+      <c r="Z135">
+        <v>5</v>
+      </c>
+      <c r="AA135">
+        <v>1</v>
+      </c>
+      <c r="AB135" t="inlineStr">
+        <is>
+          <t>La possibilità di essere sopportato, spec. dal punto di vista ecologico e sociale</t>
+        </is>
+      </c>
+      <c r="AC135">
+        <v>3</v>
+      </c>
+      <c r="AD135">
+        <v>3</v>
+      </c>
+      <c r="AF135">
+        <v>3</v>
+      </c>
+      <c r="AG135">
+        <v>4</v>
+      </c>
+      <c r="AH135">
+        <v>3</v>
+      </c>
+      <c r="AI135">
+        <v>1</v>
+      </c>
+      <c r="AJ135">
+        <v>5</v>
+      </c>
+      <c r="AL135">
+        <v>1</v>
+      </c>
+      <c r="AM135">
+        <v>3</v>
+      </c>
+      <c r="AN135">
+        <v>4</v>
+      </c>
+      <c r="AO135">
+        <v>3</v>
+      </c>
+      <c r="AP135">
+        <v>1</v>
+      </c>
+      <c r="AQ135">
+        <v>2</v>
+      </c>
+      <c r="AR135">
+        <v>7</v>
+      </c>
+      <c r="AS135">
+        <v>2</v>
+      </c>
+      <c r="AU135">
+        <v>6</v>
+      </c>
+      <c r="AV135">
+        <v>7</v>
+      </c>
+      <c r="AW135" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX135">
+        <v>1</v>
+      </c>
+      <c r="AY135" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:12:20</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:16:05</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>151.19.133.167</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>1733314565.785</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>R_24otPsu8wmfxDUC</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T136">
+        <v>4</v>
+      </c>
+      <c r="U136">
+        <v>1</v>
+      </c>
+      <c r="V136">
+        <v>5</v>
+      </c>
+      <c r="W136">
+        <v>2</v>
+      </c>
+      <c r="Y136">
+        <v>3</v>
+      </c>
+      <c r="Z136">
+        <v>5</v>
+      </c>
+      <c r="AA136">
+        <v>3</v>
+      </c>
+      <c r="AB136" t="inlineStr">
+        <is>
+          <t>La sostenibilità è la capacità di soddisfare i bisogni del presente senza compromettere la possibilità delle future generazioni di soddisfare i propri, equilibrando ambiente, società ed economia.</t>
+        </is>
+      </c>
+      <c r="AC136">
+        <v>3</v>
+      </c>
+      <c r="AE136">
+        <v>1</v>
+      </c>
+      <c r="AF136">
+        <v>5</v>
+      </c>
+      <c r="AG136">
+        <v>1</v>
+      </c>
+      <c r="AH136">
+        <v>5</v>
+      </c>
+      <c r="AI136">
+        <v>1</v>
+      </c>
+      <c r="AJ136">
+        <v>5</v>
+      </c>
+      <c r="AK136">
+        <v>3</v>
+      </c>
+      <c r="AL136">
+        <v>4</v>
+      </c>
+      <c r="AM136">
+        <v>1</v>
+      </c>
+      <c r="AN136">
+        <v>5</v>
+      </c>
+      <c r="AO136">
+        <v>3</v>
+      </c>
+      <c r="AP136">
+        <v>5</v>
+      </c>
+      <c r="AQ136">
+        <v>8</v>
+      </c>
+      <c r="AR136">
+        <v>1</v>
+      </c>
+      <c r="AS136">
+        <v>7</v>
+      </c>
+      <c r="AT136">
+        <v>6</v>
+      </c>
+      <c r="AU136">
+        <v>8</v>
+      </c>
+      <c r="AV136">
+        <v>8</v>
+      </c>
+      <c r="AW136" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX136">
+        <v>1</v>
+      </c>
+      <c r="AY136" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:12:34</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:16:29</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>151.47.237.98</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>1733314590.134</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>R_2T6MPh2AMQTf9kt</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T137">
+        <v>1</v>
+      </c>
+      <c r="U137">
+        <v>4</v>
+      </c>
+      <c r="V137">
+        <v>4</v>
+      </c>
+      <c r="W137">
+        <v>1</v>
+      </c>
+      <c r="Y137">
+        <v>3</v>
+      </c>
+      <c r="Z137">
+        <v>4</v>
+      </c>
+      <c r="AA137">
+        <v>5</v>
+      </c>
+      <c r="AC137">
+        <v>3</v>
+      </c>
+      <c r="AD137">
+        <v>2</v>
+      </c>
+      <c r="AE137">
+        <v>1</v>
+      </c>
+      <c r="AF137">
+        <v>1</v>
+      </c>
+      <c r="AG137">
+        <v>1</v>
+      </c>
+      <c r="AH137">
+        <v>1</v>
+      </c>
+      <c r="AI137">
+        <v>4</v>
+      </c>
+      <c r="AJ137">
+        <v>4</v>
+      </c>
+      <c r="AK137">
+        <v>3</v>
+      </c>
+      <c r="AL137">
+        <v>4</v>
+      </c>
+      <c r="AM137">
+        <v>3</v>
+      </c>
+      <c r="AN137">
+        <v>3</v>
+      </c>
+      <c r="AO137">
+        <v>3</v>
+      </c>
+      <c r="AP137">
+        <v>2</v>
+      </c>
+      <c r="AQ137">
+        <v>6</v>
+      </c>
+      <c r="AR137">
+        <v>6</v>
+      </c>
+      <c r="AS137">
+        <v>8</v>
+      </c>
+      <c r="AT137">
+        <v>8</v>
+      </c>
+      <c r="AU137">
+        <v>8</v>
+      </c>
+      <c r="AV137">
+        <v>6</v>
+      </c>
+      <c r="AW137" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX137">
+        <v>1</v>
+      </c>
+      <c r="AY137" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:12:26</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:16:31</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>93.38.136.132</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>1733314592.26</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>R_2plJg8zoMHFOM93</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>45.4722</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>9.1922</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T138">
+        <v>4</v>
+      </c>
+      <c r="U138">
+        <v>1</v>
+      </c>
+      <c r="V138">
+        <v>2</v>
+      </c>
+      <c r="W138">
+        <v>2</v>
+      </c>
+      <c r="Y138">
+        <v>1</v>
+      </c>
+      <c r="Z138">
+        <v>1</v>
+      </c>
+      <c r="AA138">
+        <v>1</v>
+      </c>
+      <c r="AB138" t="inlineStr">
+        <is>
+          <t>Difficile</t>
+        </is>
+      </c>
+      <c r="AC138">
+        <v>1</v>
+      </c>
+      <c r="AD138">
+        <v>1</v>
+      </c>
+      <c r="AE138">
+        <v>4</v>
+      </c>
+      <c r="AF138">
+        <v>4</v>
+      </c>
+      <c r="AG138">
+        <v>3</v>
+      </c>
+      <c r="AH138">
+        <v>2</v>
+      </c>
+      <c r="AI138">
+        <v>1</v>
+      </c>
+      <c r="AJ138">
+        <v>1</v>
+      </c>
+      <c r="AK138">
+        <v>1</v>
+      </c>
+      <c r="AL138">
+        <v>1</v>
+      </c>
+      <c r="AM138">
+        <v>1</v>
+      </c>
+      <c r="AN138">
+        <v>1</v>
+      </c>
+      <c r="AO138">
+        <v>1</v>
+      </c>
+      <c r="AP138">
+        <v>1</v>
+      </c>
+      <c r="AQ138">
+        <v>1</v>
+      </c>
+      <c r="AR138">
+        <v>1</v>
+      </c>
+      <c r="AS138">
+        <v>6</v>
+      </c>
+      <c r="AT138">
+        <v>7</v>
+      </c>
+      <c r="AU138">
+        <v>6</v>
+      </c>
+      <c r="AV138">
+        <v>6</v>
+      </c>
+      <c r="AW138" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX138">
+        <v>1</v>
+      </c>
+      <c r="AY138" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:12:33</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:17:54</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>5.91.35.16</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>1733314675.224</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>R_2t4EpWL9CSubT7X</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T139">
+        <v>2</v>
+      </c>
+      <c r="U139">
+        <v>4</v>
+      </c>
+      <c r="V139">
+        <v>5</v>
+      </c>
+      <c r="W139">
+        <v>1</v>
+      </c>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t>Ogni persona a un idea diversa</t>
+        </is>
+      </c>
+      <c r="Y139">
+        <v>5</v>
+      </c>
+      <c r="Z139">
+        <v>5</v>
+      </c>
+      <c r="AA139">
+        <v>5</v>
+      </c>
+      <c r="AB139" t="inlineStr">
+        <is>
+          <t>Una cosa sostenibile e uno sviluppo di qualcosa</t>
+        </is>
+      </c>
+      <c r="AC139">
+        <v>5</v>
+      </c>
+      <c r="AD139">
+        <v>4</v>
+      </c>
+      <c r="AF139">
+        <v>4</v>
+      </c>
+      <c r="AH139">
+        <v>5</v>
+      </c>
+      <c r="AI139">
+        <v>5</v>
+      </c>
+      <c r="AJ139">
+        <v>5</v>
+      </c>
+      <c r="AK139">
+        <v>5</v>
+      </c>
+      <c r="AL139">
+        <v>4</v>
+      </c>
+      <c r="AM139">
+        <v>4</v>
+      </c>
+      <c r="AN139">
+        <v>5</v>
+      </c>
+      <c r="AO139">
+        <v>3</v>
+      </c>
+      <c r="AP139">
+        <v>5</v>
+      </c>
+      <c r="AQ139">
+        <v>8</v>
+      </c>
+      <c r="AR139">
+        <v>7</v>
+      </c>
+      <c r="AS139">
+        <v>8</v>
+      </c>
+      <c r="AT139">
+        <v>6</v>
+      </c>
+      <c r="AU139">
+        <v>6</v>
+      </c>
+      <c r="AV139">
+        <v>2</v>
+      </c>
+      <c r="AW139" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX139">
+        <v>1</v>
+      </c>
+      <c r="AY139" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:12:58</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:18:52</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>151.43.133.64</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>1733314733.177</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>R_2jerrP8omfdZAiu</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T140">
+        <v>1</v>
+      </c>
+      <c r="U140">
+        <v>4</v>
+      </c>
+      <c r="V140">
+        <v>5</v>
+      </c>
+      <c r="W140">
+        <v>1</v>
+      </c>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>Che bisogna pensare che si deve pensare più alla sostenibilità che dell guadagno totale</t>
+        </is>
+      </c>
+      <c r="Y140">
+        <v>5</v>
+      </c>
+      <c r="Z140">
+        <v>1</v>
+      </c>
+      <c r="AA140">
+        <v>5</v>
+      </c>
+      <c r="AB140" t="inlineStr">
+        <is>
+          <t>La sostenibilità per me è pensare di sostenere le mucche invece che di guardare il guadagno totale</t>
+        </is>
+      </c>
+      <c r="AC140">
+        <v>1</v>
+      </c>
+      <c r="AD140">
+        <v>1</v>
+      </c>
+      <c r="AE140">
+        <v>1</v>
+      </c>
+      <c r="AF140">
+        <v>1</v>
+      </c>
+      <c r="AG140">
+        <v>1</v>
+      </c>
+      <c r="AH140">
+        <v>1</v>
+      </c>
+      <c r="AI140">
+        <v>5</v>
+      </c>
+      <c r="AJ140">
+        <v>5</v>
+      </c>
+      <c r="AK140">
+        <v>5</v>
+      </c>
+      <c r="AL140">
+        <v>5</v>
+      </c>
+      <c r="AM140">
+        <v>5</v>
+      </c>
+      <c r="AN140">
+        <v>4</v>
+      </c>
+      <c r="AO140">
+        <v>5</v>
+      </c>
+      <c r="AP140">
+        <v>5</v>
+      </c>
+      <c r="AQ140">
+        <v>8</v>
+      </c>
+      <c r="AR140">
+        <v>1</v>
+      </c>
+      <c r="AS140">
+        <v>8</v>
+      </c>
+      <c r="AT140">
+        <v>8</v>
+      </c>
+      <c r="AU140">
+        <v>8</v>
+      </c>
+      <c r="AV140">
+        <v>1</v>
+      </c>
+      <c r="AW140" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX140">
+        <v>1</v>
+      </c>
+      <c r="AY140" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:12:30</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:19:18</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>5.91.135.146</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>1733314758.893</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>R_2eabZoGni74j8HE</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T141">
+        <v>1</v>
+      </c>
+      <c r="U141">
+        <v>3</v>
+      </c>
+      <c r="V141">
+        <v>4</v>
+      </c>
+      <c r="W141">
+        <v>1</v>
+      </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>L’utilizzo di una nuova applicazione</t>
+        </is>
+      </c>
+      <c r="Y141">
+        <v>5</v>
+      </c>
+      <c r="Z141">
+        <v>3</v>
+      </c>
+      <c r="AA141">
+        <v>5</v>
+      </c>
+      <c r="AB141" t="inlineStr">
+        <is>
+          <t>La sostenibilità si riferisce alla capacità di soddisfare i bisogni delle generazioni presenti senza compromettere la possibilità delle generazioni future di soddisfare i bisogni.</t>
+        </is>
+      </c>
+      <c r="AC141">
+        <v>5</v>
+      </c>
+      <c r="AD141">
+        <v>1</v>
+      </c>
+      <c r="AF141">
+        <v>2</v>
+      </c>
+      <c r="AG141">
+        <v>5</v>
+      </c>
+      <c r="AH141">
+        <v>1</v>
+      </c>
+      <c r="AI141">
+        <v>4</v>
+      </c>
+      <c r="AJ141">
+        <v>4</v>
+      </c>
+      <c r="AK141">
+        <v>4</v>
+      </c>
+      <c r="AL141">
+        <v>4</v>
+      </c>
+      <c r="AM141">
+        <v>4</v>
+      </c>
+      <c r="AN141">
+        <v>4</v>
+      </c>
+      <c r="AO141">
+        <v>4</v>
+      </c>
+      <c r="AP141">
+        <v>4</v>
+      </c>
+      <c r="AQ141">
+        <v>8</v>
+      </c>
+      <c r="AS141">
+        <v>8</v>
+      </c>
+      <c r="AT141">
+        <v>8</v>
+      </c>
+      <c r="AU141">
+        <v>1</v>
+      </c>
+      <c r="AV141">
+        <v>1</v>
+      </c>
+      <c r="AW141" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX141">
+        <v>1</v>
+      </c>
+      <c r="AY141" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:13:28</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:19:43</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>5.90.237.54</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>1733314784.557</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>R_8vljL6cFDON7eqR</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T142">
+        <v>3</v>
+      </c>
+      <c r="U142">
+        <v>3</v>
+      </c>
+      <c r="V142">
+        <v>5</v>
+      </c>
+      <c r="W142">
+        <v>2</v>
+      </c>
+      <c r="Y142">
+        <v>5</v>
+      </c>
+      <c r="Z142">
+        <v>5</v>
+      </c>
+      <c r="AA142">
+        <v>5</v>
+      </c>
+      <c r="AC142">
+        <v>1</v>
+      </c>
+      <c r="AD142">
+        <v>2</v>
+      </c>
+      <c r="AE142">
+        <v>1</v>
+      </c>
+      <c r="AF142">
+        <v>1</v>
+      </c>
+      <c r="AH142">
+        <v>1</v>
+      </c>
+      <c r="AI142">
+        <v>5</v>
+      </c>
+      <c r="AJ142">
+        <v>5</v>
+      </c>
+      <c r="AK142">
+        <v>5</v>
+      </c>
+      <c r="AL142">
+        <v>4</v>
+      </c>
+      <c r="AM142">
+        <v>3</v>
+      </c>
+      <c r="AN142">
+        <v>5</v>
+      </c>
+      <c r="AO142">
+        <v>2</v>
+      </c>
+      <c r="AP142">
+        <v>4</v>
+      </c>
+      <c r="AQ142">
+        <v>8</v>
+      </c>
+      <c r="AR142">
+        <v>1</v>
+      </c>
+      <c r="AS142">
+        <v>6</v>
+      </c>
+      <c r="AT142">
+        <v>2</v>
+      </c>
+      <c r="AU142">
+        <v>2</v>
+      </c>
+      <c r="AV142">
+        <v>6</v>
+      </c>
+      <c r="AW142" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX142">
+        <v>1</v>
+      </c>
+      <c r="AY142" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:14:16</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:19:52</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>78.208.214.26</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>1733314793.126</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>R_2tzEDYQuYX3yTFO</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>45.4722</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>9.1922</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T143">
+        <v>5</v>
+      </c>
+      <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
+        <v>3</v>
+      </c>
+      <c r="W143">
+        <v>2</v>
+      </c>
+      <c r="Y143">
+        <v>1</v>
+      </c>
+      <c r="Z143">
+        <v>4</v>
+      </c>
+      <c r="AA143">
+        <v>5</v>
+      </c>
+      <c r="AB143" t="inlineStr">
+        <is>
+          <t>La condizione di uno sviluppo in grado di assicurare il soddisfacimento dei bisogni della generazione presente senza compromettere la possibilità delle generazioni future di realizzare i propri</t>
+        </is>
+      </c>
+      <c r="AF143">
+        <v>3</v>
+      </c>
+      <c r="AG143">
+        <v>5</v>
+      </c>
+      <c r="AI143">
+        <v>1</v>
+      </c>
+      <c r="AJ143">
+        <v>1</v>
+      </c>
+      <c r="AK143">
+        <v>1</v>
+      </c>
+      <c r="AL143">
+        <v>2</v>
+      </c>
+      <c r="AM143">
+        <v>2</v>
+      </c>
+      <c r="AN143">
+        <v>2</v>
+      </c>
+      <c r="AO143">
+        <v>2</v>
+      </c>
+      <c r="AP143">
+        <v>2</v>
+      </c>
+      <c r="AQ143">
+        <v>6</v>
+      </c>
+      <c r="AW143" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX143">
+        <v>1</v>
+      </c>
+      <c r="AY143" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:16:57</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:20:04</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>93.40.33.15</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>1733314804.916</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>R_8PZSS3ojVEuYUMx</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T144">
+        <v>4</v>
+      </c>
+      <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
+        <v>3</v>
+      </c>
+      <c r="W144">
+        <v>2</v>
+      </c>
+      <c r="Y144">
+        <v>5</v>
+      </c>
+      <c r="Z144">
+        <v>5</v>
+      </c>
+      <c r="AA144">
+        <v>1</v>
+      </c>
+      <c r="AB144" t="inlineStr">
+        <is>
+          <t>La possibilità di essere sopportato, spec. dal punto di vista ecologico e sociale.</t>
+        </is>
+      </c>
+      <c r="AC144">
+        <v>2</v>
+      </c>
+      <c r="AD144">
+        <v>4</v>
+      </c>
+      <c r="AE144">
+        <v>3</v>
+      </c>
+      <c r="AF144">
+        <v>3</v>
+      </c>
+      <c r="AG144">
+        <v>2</v>
+      </c>
+      <c r="AH144">
+        <v>1</v>
+      </c>
+      <c r="AI144">
+        <v>1</v>
+      </c>
+      <c r="AJ144">
+        <v>5</v>
+      </c>
+      <c r="AK144">
+        <v>5</v>
+      </c>
+      <c r="AL144">
+        <v>4</v>
+      </c>
+      <c r="AM144">
+        <v>5</v>
+      </c>
+      <c r="AN144">
+        <v>4</v>
+      </c>
+      <c r="AO144">
+        <v>1</v>
+      </c>
+      <c r="AP144">
+        <v>2</v>
+      </c>
+      <c r="AQ144">
+        <v>7</v>
+      </c>
+      <c r="AR144">
+        <v>1</v>
+      </c>
+      <c r="AS144">
+        <v>2</v>
+      </c>
+      <c r="AT144">
+        <v>1</v>
+      </c>
+      <c r="AU144">
+        <v>1</v>
+      </c>
+      <c r="AV144">
+        <v>8</v>
+      </c>
+      <c r="AW144" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX144">
+        <v>1</v>
+      </c>
+      <c r="AY144" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:13:16</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:21:12</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>5.91.48.8</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>1733314872.655</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>R_8UXEhhN45ZVkdxi</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T145">
+        <v>3</v>
+      </c>
+      <c r="U145">
+        <v>5</v>
+      </c>
+      <c r="V145">
+        <v>4</v>
+      </c>
+      <c r="W145">
+        <v>2</v>
+      </c>
+      <c r="Y145">
+        <v>5</v>
+      </c>
+      <c r="Z145">
+        <v>5</v>
+      </c>
+      <c r="AA145">
+        <v>5</v>
+      </c>
+      <c r="AB145" t="inlineStr">
+        <is>
+          <t>Un mondo senza fumi tossici, meno immondizia per i laghi e per strada.</t>
+        </is>
+      </c>
+      <c r="AC145">
+        <v>5</v>
+      </c>
+      <c r="AD145">
+        <v>1</v>
+      </c>
+      <c r="AE145">
+        <v>1</v>
+      </c>
+      <c r="AF145">
+        <v>5</v>
+      </c>
+      <c r="AG145">
+        <v>1</v>
+      </c>
+      <c r="AH145">
+        <v>1</v>
+      </c>
+      <c r="AI145">
+        <v>5</v>
+      </c>
+      <c r="AJ145">
+        <v>4</v>
+      </c>
+      <c r="AK145">
+        <v>1</v>
+      </c>
+      <c r="AL145">
+        <v>3</v>
+      </c>
+      <c r="AM145">
+        <v>4</v>
+      </c>
+      <c r="AN145">
+        <v>2</v>
+      </c>
+      <c r="AO145">
+        <v>4</v>
+      </c>
+      <c r="AP145">
+        <v>4</v>
+      </c>
+      <c r="AQ145">
+        <v>8</v>
+      </c>
+      <c r="AR145">
+        <v>2</v>
+      </c>
+      <c r="AS145">
+        <v>8</v>
+      </c>
+      <c r="AT145">
+        <v>8</v>
+      </c>
+      <c r="AU145">
+        <v>1</v>
+      </c>
+      <c r="AV145">
+        <v>6</v>
+      </c>
+      <c r="AW145" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX145">
+        <v>1</v>
+      </c>
+      <c r="AY145" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:13:02</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:21:15</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>78.210.81.8</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>1733314875.39</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>R_8q3RfKwZgs3vjxf</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>45.4722</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>9.1922</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T146">
+        <v>3</v>
+      </c>
+      <c r="U146">
+        <v>3</v>
+      </c>
+      <c r="V146">
+        <v>4</v>
+      </c>
+      <c r="W146">
+        <v>2</v>
+      </c>
+      <c r="Y146">
+        <v>5</v>
+      </c>
+      <c r="Z146">
+        <v>5</v>
+      </c>
+      <c r="AA146">
+        <v>5</v>
+      </c>
+      <c r="AC146">
+        <v>5</v>
+      </c>
+      <c r="AD146">
+        <v>1</v>
+      </c>
+      <c r="AE146">
+        <v>1</v>
+      </c>
+      <c r="AF146">
+        <v>3</v>
+      </c>
+      <c r="AG146">
+        <v>1</v>
+      </c>
+      <c r="AH146">
+        <v>1</v>
+      </c>
+      <c r="AI146">
+        <v>5</v>
+      </c>
+      <c r="AJ146">
+        <v>5</v>
+      </c>
+      <c r="AK146">
+        <v>5</v>
+      </c>
+      <c r="AL146">
+        <v>3</v>
+      </c>
+      <c r="AM146">
+        <v>4</v>
+      </c>
+      <c r="AN146">
+        <v>1</v>
+      </c>
+      <c r="AO146">
+        <v>3</v>
+      </c>
+      <c r="AP146">
+        <v>2</v>
+      </c>
+      <c r="AQ146">
+        <v>8</v>
+      </c>
+      <c r="AR146">
+        <v>8</v>
+      </c>
+      <c r="AS146">
+        <v>8</v>
+      </c>
+      <c r="AT146">
+        <v>8</v>
+      </c>
+      <c r="AU146">
+        <v>2</v>
+      </c>
+      <c r="AV146">
+        <v>6</v>
+      </c>
+      <c r="AW146" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX146">
+        <v>1</v>
+      </c>
+      <c r="AY146" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:14:21</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:21:32</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>78.210.134.109</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>1733314893.075</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>R_8jTzHXTeI9rZP6T</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>45.4742</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>9.1994</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T147">
+        <v>5</v>
+      </c>
+      <c r="U147">
+        <v>4</v>
+      </c>
+      <c r="V147">
+        <v>4</v>
+      </c>
+      <c r="W147">
+        <v>2</v>
+      </c>
+      <c r="Y147">
+        <v>5</v>
+      </c>
+      <c r="Z147">
+        <v>5</v>
+      </c>
+      <c r="AA147">
+        <v>5</v>
+      </c>
+      <c r="AB147" t="inlineStr">
+        <is>
+          <t>la condizione di uno sviluppo in grado di “assicurare il soddisfacimento dei bisogni della generazione presente senza compromettere la possibilità delle generazioni future di realizzare i propri”.</t>
+        </is>
+      </c>
+      <c r="AC147">
+        <v>3</v>
+      </c>
+      <c r="AD147">
+        <v>4</v>
+      </c>
+      <c r="AE147">
+        <v>2</v>
+      </c>
+      <c r="AF147">
+        <v>3</v>
+      </c>
+      <c r="AG147">
+        <v>3</v>
+      </c>
+      <c r="AH147">
+        <v>2</v>
+      </c>
+      <c r="AI147">
+        <v>5</v>
+      </c>
+      <c r="AJ147">
+        <v>5</v>
+      </c>
+      <c r="AK147">
+        <v>5</v>
+      </c>
+      <c r="AL147">
+        <v>4</v>
+      </c>
+      <c r="AM147">
+        <v>3</v>
+      </c>
+      <c r="AN147">
+        <v>5</v>
+      </c>
+      <c r="AO147">
+        <v>2</v>
+      </c>
+      <c r="AP147">
+        <v>5</v>
+      </c>
+      <c r="AQ147">
+        <v>8</v>
+      </c>
+      <c r="AR147">
+        <v>1</v>
+      </c>
+      <c r="AS147">
+        <v>6</v>
+      </c>
+      <c r="AT147">
+        <v>7</v>
+      </c>
+      <c r="AU147">
+        <v>8</v>
+      </c>
+      <c r="AV147">
+        <v>7</v>
+      </c>
+      <c r="AW147" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX147">
+        <v>1</v>
+      </c>
+      <c r="AY147" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:16:11</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:21:41</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>151.57.0.185</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>1733314902.212</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>R_2aOfZkbmorLl7Y5</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T148">
+        <v>4</v>
+      </c>
+      <c r="U148">
+        <v>2</v>
+      </c>
+      <c r="V148">
+        <v>5</v>
+      </c>
+      <c r="W148">
+        <v>2</v>
+      </c>
+      <c r="Y148">
+        <v>1</v>
+      </c>
+      <c r="Z148">
+        <v>1</v>
+      </c>
+      <c r="AA148">
+        <v>1</v>
+      </c>
+      <c r="AB148" t="inlineStr">
+        <is>
+          <t>La sostenibilità consiste nell'utilizzo efficiente e rispettoso delle risorse,</t>
+        </is>
+      </c>
+      <c r="AC148">
+        <v>5</v>
+      </c>
+      <c r="AD148">
+        <v>3</v>
+      </c>
+      <c r="AE148">
+        <v>4</v>
+      </c>
+      <c r="AF148">
+        <v>2</v>
+      </c>
+      <c r="AH148">
+        <v>3</v>
+      </c>
+      <c r="AI148">
+        <v>3</v>
+      </c>
+      <c r="AJ148">
+        <v>4</v>
+      </c>
+      <c r="AK148">
+        <v>3</v>
+      </c>
+      <c r="AL148">
+        <v>3</v>
+      </c>
+      <c r="AM148">
+        <v>4</v>
+      </c>
+      <c r="AN148">
+        <v>4</v>
+      </c>
+      <c r="AO148">
+        <v>3</v>
+      </c>
+      <c r="AP148">
+        <v>2</v>
+      </c>
+      <c r="AQ148">
+        <v>8</v>
+      </c>
+      <c r="AR148">
+        <v>1</v>
+      </c>
+      <c r="AS148">
+        <v>6</v>
+      </c>
+      <c r="AT148">
+        <v>6</v>
+      </c>
+      <c r="AU148">
+        <v>6</v>
+      </c>
+      <c r="AV148">
+        <v>1</v>
+      </c>
+      <c r="AW148" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX148">
+        <v>1</v>
+      </c>
+      <c r="AY148" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:13:30</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:22:54</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>78.210.134.109</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>1733314975.108</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>R_2jFFD1yrS3tchtT</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>45.4742</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>9.1994</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T149">
+        <v>2</v>
+      </c>
+      <c r="U149">
+        <v>2</v>
+      </c>
+      <c r="V149">
+        <v>3</v>
+      </c>
+      <c r="W149">
+        <v>1</v>
+      </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>Di agire di intelligenza</t>
+        </is>
+      </c>
+      <c r="Y149">
+        <v>5</v>
+      </c>
+      <c r="Z149">
+        <v>1</v>
+      </c>
+      <c r="AA149">
+        <v>5</v>
+      </c>
+      <c r="AB149" t="inlineStr">
+        <is>
+          <t>Possibilità di essere mantenuto</t>
+        </is>
+      </c>
+      <c r="AC149">
+        <v>5</v>
+      </c>
+      <c r="AD149">
+        <v>1</v>
+      </c>
+      <c r="AE149">
+        <v>1</v>
+      </c>
+      <c r="AF149">
+        <v>1</v>
+      </c>
+      <c r="AG149">
+        <v>1</v>
+      </c>
+      <c r="AH149">
+        <v>1</v>
+      </c>
+      <c r="AI149">
+        <v>5</v>
+      </c>
+      <c r="AJ149">
+        <v>5</v>
+      </c>
+      <c r="AK149">
+        <v>5</v>
+      </c>
+      <c r="AL149">
+        <v>4</v>
+      </c>
+      <c r="AM149">
+        <v>4</v>
+      </c>
+      <c r="AN149">
+        <v>4</v>
+      </c>
+      <c r="AO149">
+        <v>3</v>
+      </c>
+      <c r="AP149">
+        <v>3</v>
+      </c>
+      <c r="AQ149">
+        <v>8</v>
+      </c>
+      <c r="AR149">
+        <v>1</v>
+      </c>
+      <c r="AS149">
+        <v>8</v>
+      </c>
+      <c r="AT149">
+        <v>8</v>
+      </c>
+      <c r="AU149">
+        <v>1</v>
+      </c>
+      <c r="AV149">
+        <v>1</v>
+      </c>
+      <c r="AW149" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX149">
+        <v>1</v>
+      </c>
+      <c r="AY149" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_analysis/df_studenti.xlsx
+++ b/data_analysis/df_studenti.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY149"/>
+  <dimension ref="A1:AY155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25842,6 +25842,990 @@
         </is>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2024-12-04 10:00:00</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2024-12-04 10:00:00</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>1733306400</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>R_cartaceo_6</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
+        <v>4</v>
+      </c>
+      <c r="V150">
+        <v>4</v>
+      </c>
+      <c r="W150">
+        <v>1</v>
+      </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>che pure deviamo sentire alle altre persone quando idee diverse da noi</t>
+        </is>
+      </c>
+      <c r="Y150">
+        <v>3</v>
+      </c>
+      <c r="Z150">
+        <v>2</v>
+      </c>
+      <c r="AA150">
+        <v>4</v>
+      </c>
+      <c r="AB150" t="inlineStr">
+        <is>
+          <t>la sostenibilità che tutti deviamo lavorare per sostenere le cose</t>
+        </is>
+      </c>
+      <c r="AC150">
+        <v>5</v>
+      </c>
+      <c r="AD150">
+        <v>1</v>
+      </c>
+      <c r="AE150">
+        <v>5</v>
+      </c>
+      <c r="AF150">
+        <v>1</v>
+      </c>
+      <c r="AG150">
+        <v>3</v>
+      </c>
+      <c r="AH150">
+        <v>1</v>
+      </c>
+      <c r="AI150">
+        <v>3</v>
+      </c>
+      <c r="AJ150">
+        <v>3</v>
+      </c>
+      <c r="AK150">
+        <v>3</v>
+      </c>
+      <c r="AL150">
+        <v>3</v>
+      </c>
+      <c r="AM150">
+        <v>4</v>
+      </c>
+      <c r="AN150">
+        <v>2</v>
+      </c>
+      <c r="AO150">
+        <v>3</v>
+      </c>
+      <c r="AP150">
+        <v>2</v>
+      </c>
+      <c r="AQ150">
+        <v>5</v>
+      </c>
+      <c r="AR150">
+        <v>1</v>
+      </c>
+      <c r="AS150">
+        <v>5</v>
+      </c>
+      <c r="AT150">
+        <v>5</v>
+      </c>
+      <c r="AU150">
+        <v>1</v>
+      </c>
+      <c r="AV150">
+        <v>1</v>
+      </c>
+      <c r="AW150" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX150">
+        <v>0</v>
+      </c>
+      <c r="AY150" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2024-12-04 10:00:00</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2024-12-04 10:00:00</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>1733306400</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>R_cartaceo_7</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T151">
+        <v>3</v>
+      </c>
+      <c r="U151">
+        <v>4</v>
+      </c>
+      <c r="V151">
+        <v>4</v>
+      </c>
+      <c r="W151">
+        <v>2</v>
+      </c>
+      <c r="Y151">
+        <v>5</v>
+      </c>
+      <c r="Z151">
+        <v>5</v>
+      </c>
+      <c r="AA151">
+        <v>5</v>
+      </c>
+      <c r="AC151">
+        <v>3</v>
+      </c>
+      <c r="AD151">
+        <v>4</v>
+      </c>
+      <c r="AE151">
+        <v>5</v>
+      </c>
+      <c r="AF151">
+        <v>3</v>
+      </c>
+      <c r="AG151">
+        <v>1</v>
+      </c>
+      <c r="AH151">
+        <v>1</v>
+      </c>
+      <c r="AI151">
+        <v>5</v>
+      </c>
+      <c r="AJ151">
+        <v>5</v>
+      </c>
+      <c r="AK151">
+        <v>5</v>
+      </c>
+      <c r="AL151">
+        <v>3</v>
+      </c>
+      <c r="AM151">
+        <v>1</v>
+      </c>
+      <c r="AN151">
+        <v>3</v>
+      </c>
+      <c r="AO151">
+        <v>1</v>
+      </c>
+      <c r="AP151">
+        <v>2</v>
+      </c>
+      <c r="AQ151">
+        <v>5</v>
+      </c>
+      <c r="AR151">
+        <v>1</v>
+      </c>
+      <c r="AS151">
+        <v>3</v>
+      </c>
+      <c r="AT151">
+        <v>2</v>
+      </c>
+      <c r="AU151">
+        <v>2</v>
+      </c>
+      <c r="AV151">
+        <v>2</v>
+      </c>
+      <c r="AW151" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX151">
+        <v>0</v>
+      </c>
+      <c r="AY151" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2024-12-04 10:00:00</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2024-12-04 10:00:00</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>1733306400</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>R_cartaceo_8</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T152">
+        <v>1</v>
+      </c>
+      <c r="U152">
+        <v>5</v>
+      </c>
+      <c r="V152">
+        <v>4</v>
+      </c>
+      <c r="W152">
+        <v>1</v>
+      </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>rispettando l'ambiente</t>
+        </is>
+      </c>
+      <c r="Y152">
+        <v>4</v>
+      </c>
+      <c r="Z152">
+        <v>5</v>
+      </c>
+      <c r="AA152">
+        <v>3</v>
+      </c>
+      <c r="AB152" t="inlineStr">
+        <is>
+          <t>sostenere l'ambiente</t>
+        </is>
+      </c>
+      <c r="AC152">
+        <v>2</v>
+      </c>
+      <c r="AD152">
+        <v>4</v>
+      </c>
+      <c r="AE152">
+        <v>4</v>
+      </c>
+      <c r="AF152">
+        <v>4</v>
+      </c>
+      <c r="AG152">
+        <v>3</v>
+      </c>
+      <c r="AH152">
+        <v>5</v>
+      </c>
+      <c r="AI152">
+        <v>5</v>
+      </c>
+      <c r="AJ152">
+        <v>4</v>
+      </c>
+      <c r="AK152">
+        <v>4</v>
+      </c>
+      <c r="AL152">
+        <v>3</v>
+      </c>
+      <c r="AM152">
+        <v>2</v>
+      </c>
+      <c r="AN152">
+        <v>4</v>
+      </c>
+      <c r="AO152">
+        <v>5</v>
+      </c>
+      <c r="AP152">
+        <v>3</v>
+      </c>
+      <c r="AQ152">
+        <v>1</v>
+      </c>
+      <c r="AR152">
+        <v>3</v>
+      </c>
+      <c r="AS152">
+        <v>2</v>
+      </c>
+      <c r="AT152">
+        <v>4</v>
+      </c>
+      <c r="AU152">
+        <v>4</v>
+      </c>
+      <c r="AV152">
+        <v>5</v>
+      </c>
+      <c r="AW152" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX152">
+        <v>0</v>
+      </c>
+      <c r="AY152" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:00:00</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:00:00</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>1733310000</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>R_cartaceo_9</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T153">
+        <v>2</v>
+      </c>
+      <c r="U153">
+        <v>2</v>
+      </c>
+      <c r="V153">
+        <v>4</v>
+      </c>
+      <c r="W153">
+        <v>1</v>
+      </c>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>rispettare l'ambiente</t>
+        </is>
+      </c>
+      <c r="Y153">
+        <v>5</v>
+      </c>
+      <c r="Z153">
+        <v>4</v>
+      </c>
+      <c r="AA153">
+        <v>3</v>
+      </c>
+      <c r="AB153" t="inlineStr">
+        <is>
+          <t>sostenere l'ambiente</t>
+        </is>
+      </c>
+      <c r="AC153">
+        <v>1</v>
+      </c>
+      <c r="AD153">
+        <v>3</v>
+      </c>
+      <c r="AE153">
+        <v>3</v>
+      </c>
+      <c r="AF153">
+        <v>3</v>
+      </c>
+      <c r="AI153">
+        <v>3</v>
+      </c>
+      <c r="AJ153">
+        <v>1</v>
+      </c>
+      <c r="AK153">
+        <v>5</v>
+      </c>
+      <c r="AL153">
+        <v>4</v>
+      </c>
+      <c r="AM153">
+        <v>2</v>
+      </c>
+      <c r="AN153">
+        <v>1</v>
+      </c>
+      <c r="AO153">
+        <v>2</v>
+      </c>
+      <c r="AP153">
+        <v>2</v>
+      </c>
+      <c r="AQ153">
+        <v>5</v>
+      </c>
+      <c r="AR153">
+        <v>3</v>
+      </c>
+      <c r="AS153">
+        <v>4</v>
+      </c>
+      <c r="AT153">
+        <v>3</v>
+      </c>
+      <c r="AU153">
+        <v>3</v>
+      </c>
+      <c r="AV153">
+        <v>4</v>
+      </c>
+      <c r="AW153" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX153">
+        <v>0</v>
+      </c>
+      <c r="AY153" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:00:00</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:00:00</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>1733310000</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>R_cartaceo_10</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T154">
+        <v>2</v>
+      </c>
+      <c r="U154">
+        <v>4</v>
+      </c>
+      <c r="V154">
+        <v>3</v>
+      </c>
+      <c r="W154">
+        <v>2</v>
+      </c>
+      <c r="Y154">
+        <v>5</v>
+      </c>
+      <c r="Z154">
+        <v>5</v>
+      </c>
+      <c r="AA154">
+        <v>5</v>
+      </c>
+      <c r="AB154" t="inlineStr">
+        <is>
+          <t>in questo esempio la sostenibilità è il benessere ed il cibo di ogni gruppo di mucche</t>
+        </is>
+      </c>
+      <c r="AC154">
+        <v>2</v>
+      </c>
+      <c r="AD154">
+        <v>1</v>
+      </c>
+      <c r="AE154">
+        <v>4</v>
+      </c>
+      <c r="AF154">
+        <v>3</v>
+      </c>
+      <c r="AG154">
+        <v>3</v>
+      </c>
+      <c r="AH154">
+        <v>1</v>
+      </c>
+      <c r="AI154">
+        <v>5</v>
+      </c>
+      <c r="AJ154">
+        <v>4</v>
+      </c>
+      <c r="AK154">
+        <v>5</v>
+      </c>
+      <c r="AL154">
+        <v>3</v>
+      </c>
+      <c r="AM154">
+        <v>4</v>
+      </c>
+      <c r="AN154">
+        <v>2</v>
+      </c>
+      <c r="AO154">
+        <v>5</v>
+      </c>
+      <c r="AP154">
+        <v>5</v>
+      </c>
+      <c r="AW154" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX154">
+        <v>0</v>
+      </c>
+      <c r="AY154" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2024-11-27 10:00:00</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2024-11-27 10:00:00</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>1732701600</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>R_cartaceo_11</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T155">
+        <v>5</v>
+      </c>
+      <c r="U155">
+        <v>3</v>
+      </c>
+      <c r="V155">
+        <v>4</v>
+      </c>
+      <c r="W155">
+        <v>1</v>
+      </c>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>si deve collaborare di più con i compagni</t>
+        </is>
+      </c>
+      <c r="Y155">
+        <v>5</v>
+      </c>
+      <c r="Z155">
+        <v>3</v>
+      </c>
+      <c r="AA155">
+        <v>5</v>
+      </c>
+      <c r="AB155" t="inlineStr">
+        <is>
+          <t>sostiene qualunchue persona e aiutare sempre il prosimo</t>
+        </is>
+      </c>
+      <c r="AC155">
+        <v>5</v>
+      </c>
+      <c r="AD155">
+        <v>1</v>
+      </c>
+      <c r="AE155">
+        <v>2</v>
+      </c>
+      <c r="AF155">
+        <v>3</v>
+      </c>
+      <c r="AG155">
+        <v>4</v>
+      </c>
+      <c r="AH155">
+        <v>1</v>
+      </c>
+      <c r="AI155">
+        <v>2</v>
+      </c>
+      <c r="AJ155">
+        <v>1</v>
+      </c>
+      <c r="AL155">
+        <v>5</v>
+      </c>
+      <c r="AM155">
+        <v>5</v>
+      </c>
+      <c r="AN155">
+        <v>4</v>
+      </c>
+      <c r="AO155">
+        <v>3</v>
+      </c>
+      <c r="AP155">
+        <v>2</v>
+      </c>
+      <c r="AQ155">
+        <v>5</v>
+      </c>
+      <c r="AR155">
+        <v>2</v>
+      </c>
+      <c r="AS155">
+        <v>4</v>
+      </c>
+      <c r="AT155">
+        <v>3</v>
+      </c>
+      <c r="AU155">
+        <v>3</v>
+      </c>
+      <c r="AV155">
+        <v>2</v>
+      </c>
+      <c r="AW155" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="AX155">
+        <v>0</v>
+      </c>
+      <c r="AY155" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
